--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\HW\Тестирование веб формы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75BA555-D1AB-488C-B6B9-EC8FE49C1FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971BE2C-FC83-4777-9ABE-836E89061FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Поле может быть пустым</t>
   </si>
   <si>
-    <t xml:space="preserve">При заполнеии поля количество символов не может быть меньше  1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">При заполнеии поля количество символов не может быть больше 64 </t>
   </si>
   <si>
@@ -136,37 +133,73 @@
     <t>Вводимые данные</t>
   </si>
   <si>
-    <t>1. Vladislav
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Появится надпись "Success! Hello: Vladislav Voronin"</t>
+  </si>
+  <si>
+    <t>Для выполняния тест-кейсов необходимо зайти на сайт http://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>Что тестируем</t>
+  </si>
+  <si>
+    <t>Описание улучшения</t>
+  </si>
+  <si>
+    <t>Заменить надпись "ITCareerToday web form" на описание валидационной формы. Например : "ITCareerToday registration form"</t>
+  </si>
+  <si>
+    <t>Добавить для поля Password функцию отображения пароля</t>
+  </si>
+  <si>
+    <t>В сообщении об успешной регистрации отображать имя и фамилию с большой буквы ( а также добавить заглавную букву для двойных имен и фамилий после дефиса и пробела. Например: "Ева Оливия", "Эмилия-Анна" )</t>
+  </si>
+  <si>
+    <t>Допустить использование пробела в поле Name</t>
+  </si>
+  <si>
+    <t>Появится надпись "Success! Hello: Vladislav-Vladislav"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При заполнеии поля количество символов не может быть меньше 1 </t>
+  </si>
+  <si>
+    <t>1. Vladislav-Vladislav
 2. 
 3. vlad9710@mail.ru
-4. Pass123</t>
+4. Pas123</t>
+  </si>
+  <si>
+    <t>1. Регистрозависимость
+2. Регистрозависимость
+3. Цифры, дефис и точку до доменной части
+4. Граничное значение поля Password (16 символов)</t>
+  </si>
+  <si>
+    <t>1. Наличие дефиса 
+2. Пустое значение
+3. Email начинается с буквы. Точку в доменной части
+4. Граничное значение поля Password (6 символов)</t>
+  </si>
+  <si>
+    <t>1. Заполнение формы из буфера обмена
+2. Заполнение формы из буфера обмена
+3. Заполнение формы из буфера обмена. Email начинается с цифры
+4. Граничное значение поля Password (7 символов)</t>
+  </si>
+  <si>
+    <t>1. VladISLAV
+2. vorONIN
+3. v_l.a_d9710@mail.ru
+4. Password01234567</t>
   </si>
   <si>
     <t>1. Vladislav
 2. Voronin
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>Ожидаемый результат</t>
-  </si>
-  <si>
-    <t>Появится надпись "Success! Hello: Vladislav"</t>
-  </si>
-  <si>
-    <t>Появится надпись "Success! Hello: Vladislav Voronin"</t>
-  </si>
-  <si>
-    <t>Для выполняния тест-кейсов необходимо зайти на сайт http://itcareer.pythonanywhere.com/</t>
-  </si>
-  <si>
-    <t>Заполнить все формы</t>
-  </si>
-  <si>
-    <t>Что тестируем</t>
-  </si>
-  <si>
-    <t>Валидацию формы без ввода фамилии</t>
+3. 2vlad9710@mail.ru
+4. PAss123</t>
   </si>
 </sst>
 </file>
@@ -278,16 +311,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,6 +337,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B39B6-8AD6-4C8F-BBB7-E4D22CCDEA64}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,284 +686,284 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>22</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>25</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>30</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>31</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -939,13 +979,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2376D33-DDBD-41F7-84C6-37364AA7E9F8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="15"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -953,439 +1181,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D093250-EA65-47A5-B792-4562C1EFC6FD}">
   <dimension ref="A3:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>38</v>
+      <c r="A3" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>14</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>16</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>22</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>23</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>27</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>28</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>29</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>32</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>33</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>34</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>35</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>36</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>37</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>38</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>39</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>40</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>4</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>5</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>6</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>7</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>8</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>9</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>10</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>11</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>12</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>13</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>14</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>15</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>16</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>17</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>18</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>19</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>20</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>21</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>22</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>23</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>24</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>25</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>26</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>27</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>28</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>29</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>30</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>31</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>32</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>33</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>34</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>35</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>36</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>37</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>38</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>39</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>40</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>41</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>42</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>43</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>44</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>45</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>46</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>47</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>48</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>49</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\HW\Тестирование веб формы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repository\Ksendzov_group_27\Web form testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971BE2C-FC83-4777-9ABE-836E89061FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6768317-46B3-4687-829A-908F7BCD813F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
   <si>
     <t>№</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Поле может содержать только буквы латинского алфавита</t>
   </si>
   <si>
-    <t>Поле не может содержать менее 5 символов</t>
-  </si>
-  <si>
-    <t>Поле не может содержать более 128 символов</t>
-  </si>
-  <si>
     <t>Поле может содержать дефиз</t>
   </si>
   <si>
@@ -73,18 +67,9 @@
     <t>Поле не является обязательным для заполнения</t>
   </si>
   <si>
-    <t>Поле может быть пустым</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При заполнеии поля количество символов не может быть больше 64 </t>
-  </si>
-  <si>
     <t>Поле может содержать дефис</t>
   </si>
   <si>
-    <t>Поле может содержать пробел</t>
-  </si>
-  <si>
     <t>Поле Email</t>
   </si>
   <si>
@@ -97,15 +82,6 @@
     <t>Поле должно начинаться с буквы или цифры</t>
   </si>
   <si>
-    <t>Доменная часть не может содержать менее 2 символов</t>
-  </si>
-  <si>
-    <t>Доменная часть не может содержать более 24 символов</t>
-  </si>
-  <si>
-    <t>Допускается использование дефиса, точки в доменной части</t>
-  </si>
-  <si>
     <t>Email должен быть уникальным</t>
   </si>
   <si>
@@ -136,9 +112,6 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Появится надпись "Success! Hello: Vladislav Voronin"</t>
-  </si>
-  <si>
     <t>Для выполняния тест-кейсов необходимо зайти на сайт http://itcareer.pythonanywhere.com/</t>
   </si>
   <si>
@@ -157,56 +130,493 @@
     <t>В сообщении об успешной регистрации отображать имя и фамилию с большой буквы ( а также добавить заглавную букву для двойных имен и фамилий после дефиса и пробела. Например: "Ева Оливия", "Эмилия-Анна" )</t>
   </si>
   <si>
-    <t>Допустить использование пробела в поле Name</t>
-  </si>
-  <si>
-    <t>Появится надпись "Success! Hello: Vladislav-Vladislav"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При заполнеии поля количество символов не может быть меньше 1 </t>
-  </si>
-  <si>
-    <t>1. Vladislav-Vladislav
+    <t>Положительные кейсы</t>
+  </si>
+  <si>
+    <t>Негативные кейсы</t>
+  </si>
+  <si>
+    <t>1. Пустое значение
+2. Пустое значение
+3. Пустое значение
+4. Пустое значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 
 2. 
+3. 
+4. </t>
+  </si>
+  <si>
+    <t>Появится надпись "Error: Error: All Fields are Required"</t>
+  </si>
+  <si>
+    <t>1. Пустое значение
+2. Валидационное значение
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. 
+2. Voronin
 3. vlad9710@mail.ru
-4. Pas123</t>
-  </si>
-  <si>
-    <t>1. Регистрозависимость
-2. Регистрозависимость
-3. Цифры, дефис и точку до доменной части
-4. Граничное значение поля Password (16 символов)</t>
-  </si>
-  <si>
-    <t>1. Наличие дефиса 
-2. Пустое значение
-3. Email начинается с буквы. Точку в доменной части
-4. Граничное значение поля Password (6 символов)</t>
-  </si>
-  <si>
-    <t>1. Заполнение формы из буфера обмена
-2. Заполнение формы из буфера обмена
-3. Заполнение формы из буфера обмена. Email начинается с цифры
-4. Граничное значение поля Password (7 символов)</t>
-  </si>
-  <si>
-    <t>1. VladISLAV
-2. vorONIN
-3. v_l.a_d9710@mail.ru
-4. Password01234567</t>
+4. Pass123</t>
   </si>
   <si>
     <t>1. Vladislav
 2. Voronin
-3. 2vlad9710@mail.ru
+3. 
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Пустое значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Пустое значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. </t>
+  </si>
+  <si>
+    <t>1. Владислав
+2. Voronin
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Буквы не латинского алфавита
+2. Валидационное значение
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Воронин
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Буквы не латинского алфавита
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Буквы не латинского алфавита
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. емейл@мейл.ру
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Буквы не латинского алфавита</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. Пароль123</t>
+  </si>
+  <si>
+    <t>Поле не может содержать более 18 символов</t>
+  </si>
+  <si>
+    <t>При заполнеии поля количество символов не может быть больше 18</t>
+  </si>
+  <si>
+    <t>Поле не может содержать менее 3 символов</t>
+  </si>
+  <si>
+    <t>При заполнеии поля количество символов не может быть меньше 3</t>
+  </si>
+  <si>
+    <t>Появится надпись "Success! Hello: Ann Nan"</t>
+  </si>
+  <si>
+    <t>Появится надпись "Success! Hello: Vl-a V-or"</t>
+  </si>
+  <si>
+    <t>Появится надпись "Success! Hello: Vladislav-Voronin Vladislav-Voronin"</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. 
+3. vlad0@ru
+4. Pas123</t>
+  </si>
+  <si>
+    <t>Появится надпись "Success! Hello: Vladislav"</t>
+  </si>
+  <si>
+    <t>1. Валидное значение
+2. Пустое поле
+3. Валидное значение
+4. Валидное значение</t>
+  </si>
+  <si>
+    <t>Name = 1</t>
+  </si>
+  <si>
+    <t>Surname = 2</t>
+  </si>
+  <si>
+    <t>Email = 3</t>
+  </si>
+  <si>
+    <t>Password = 4</t>
+  </si>
+  <si>
+    <t>Допускается использование дефиса в доменной части</t>
+  </si>
+  <si>
+    <t>Доменная часть не может содержать менее 4 символов</t>
+  </si>
+  <si>
+    <t>Добавить надпись об обязательных полях для заполнения</t>
+  </si>
+  <si>
+    <t>1. Граничное значение (2 символа)
+2. Валидационное значение
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vl
+2. Voronin
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Граничное значение (19 символа)
+2. Валидационное значение
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. VladislavVladislavV
+2. Voronin
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Граничное значение (2 символа)
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Vo
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Граничное значение (18 символа)
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. VladislavVladislavV
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Граничное значение в домене (3 символа)
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. qqq@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Граничное значение в теле (3 символа)
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>Тело не может содержать менее 4 символов</t>
+  </si>
+  <si>
+    <t>Тело не может содержать более 16 символов</t>
+  </si>
+  <si>
+    <t>Доменная часть не может содержать более 16 символов</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Заполнение формы из буфера обмена. Регистрозависимость. Граничное значение ( 3 символа)
+2. Заполнение формы из буфера обмена. Регистрозависимость. Граничное значение ( 3 символа)
+3. Начинается с буквы. Граничное значение тела (4 символов), домена ( 4 символа)
+4. Граничное значение поля Password (6 символов)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. AnN
+2. NaN
+3. vlad@i.ru
+4. Pas123</t>
+  </si>
+  <si>
+    <t>1. Наличие дефиса, Регистрозависимость. Граничные значения (4 символа)
+2. Наличие дефиса, Регистрозависимость. Граничные значения (4 символа)
+3. Заполнение формы из буфера обмена. Email начинается с цифры. Граничное значение тела (5 символов)  домена ( 5 символа)
+4. Граничное значение поля Password (7 символов)</t>
+  </si>
+  <si>
+    <t>1. Vl-a
+2. V-Or
+3. 9vlad@iu.ru
 4. PAss123</t>
+  </si>
+  <si>
+    <t>1. VlaDiSlav-VoRoNin
+2. VlaDiSlav-VoRoNin
+3. v_l.a_d97101111@qweqweqweqwe.ru
+4. Password0123456</t>
+  </si>
+  <si>
+    <t>1. Регистрозависимость. Наличие дефиса. Граничное значение (17 символов)
+2. Регистрозависимость. Наличие дефиса. Граничное значение (17 символов)
+3. Цифры, дефис и точку до доменной части. Граничное значение тела (15 символов), домена (15 символа)
+4. Граничное значение поля Password (15 символов)</t>
+  </si>
+  <si>
+    <t>1. Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
+2. Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
+3. Дефис в доменной части. Граничное значение тела (16 символов), домена (16 символа)
+4. Граничное значение поля Password (16 символов)</t>
+  </si>
+  <si>
+    <t>1. Vladislav-VoroninV
+2. Vladislav-VoroninV
+3. v_l.a_d9710qqqqq@qqqqqweq-eqwe.ru
+4. Password01234567</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Граничное значение в теле (17 символов)
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. qqqqqqqqqqqqqqqqq@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. qqq@i.u
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Граничное значение в домене (17 символа)
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. qqq@qqqqqqqqqqqqqq.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Граничное значение (5 символов)</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. Pass1</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Граничное значение (17 символов)</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. Passssssssssssss1</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. password1</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Не вводим заглавную букву</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Не вводим цифру</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. Password</t>
+  </si>
+  <si>
+    <t>1. Спецсимволы
+2. Валидационное значение
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. "(%;*;
+2. Voronin
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. "(%;*;
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. "(%;*;
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. "(%;*;</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Спецсимволы
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Спецсимволы
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Спецсимволы</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Дефис 2 раза подряд в теле
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vl--ad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Дефис 2 раза подряд в домене
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@ma--il.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Точка 2 раза подряд в теле
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vl..ad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Точка 2 раза подряд в домене
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail..ru
+4. Pass123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +653,23 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,8 +682,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -307,11 +738,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,7 +771,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -339,18 +780,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B39B6-8AD6-4C8F-BBB7-E4D22CCDEA64}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B38" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,10 +1141,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -721,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,431 +1200,432 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="12"/>
+      <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>25</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2376D33-DDBD-41F7-84C6-37364AA7E9F8}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>36</v>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>37</v>
+      <c r="B2" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>39</v>
+      <c r="B5" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="12"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="15"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="15"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,450 +1635,688 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D093250-EA65-47A5-B792-4562C1EFC6FD}">
-  <dimension ref="A3:D56"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="93.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>7</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="B29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="B30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="B31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="B32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="B33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="B34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="B35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="B36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="B37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="B38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="B39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="B40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="B41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="B42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>27</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>28</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>29</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>30</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>31</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>32</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>33</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>34</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>35</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>36</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="B43" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>37</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>38</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>39</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>40</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>41</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>42</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>45</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>46</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>47</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>48</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>49</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>40</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>41</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>42</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>43</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repository\Ksendzov_group_27\Web form testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6768317-46B3-4687-829A-908F7BCD813F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222486B2-7D5E-44BA-9C13-EDE74A82193B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="222">
   <si>
     <t>№</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Добавить для поля Password функцию отображения пароля</t>
-  </si>
-  <si>
-    <t>В сообщении об успешной регистрации отображать имя и фамилию с большой буквы ( а также добавить заглавную букву для двойных имен и фамилий после дефиса и пробела. Например: "Ева Оливия", "Эмилия-Анна" )</t>
   </si>
   <si>
     <t>Положительные кейсы</t>
@@ -247,9 +244,6 @@
     <t>При заполнеии поля количество символов не может быть меньше 3</t>
   </si>
   <si>
-    <t>Появится надпись "Success! Hello: Ann Nan"</t>
-  </si>
-  <si>
     <t>Появится надпись "Success! Hello: Vl-a V-or"</t>
   </si>
   <si>
@@ -365,6 +359,436 @@
   </si>
   <si>
     <t>Доменная часть не может содержать более 16 символов</t>
+  </si>
+  <si>
+    <t>1. VlaDiSlav-VoRoNin
+2. VlaDiSlav-VoRoNin
+3. v_l.a_d97101111@qweqweqweqwe.ru
+4. Password0123456</t>
+  </si>
+  <si>
+    <t>1. Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
+2. Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
+3. Дефис в доменной части. Граничное значение тела (16 символов), домена (16 символа)
+4. Граничное значение поля Password (16 символов)</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Граничное значение в теле (17 символов)
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. qqqqqqqqqqqqqqqqq@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. qqq@i.u
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Граничное значение в домене (17 символа)
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. qqq@qqqqqqqqqqqqqq.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Граничное значение (5 символов)</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. Pass1</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Граничное значение (17 символов)</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. Passssssssssssss1</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. password1</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Не вводим заглавную букву</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Не вводим цифру</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. Password</t>
+  </si>
+  <si>
+    <t>1. Спецсимволы
+2. Валидационное значение
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. "(%;*;
+2. Voronin
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. "(%;*;
+3. vlad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. "(%;*;
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail.ru
+4. "(%;*;</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Спецсимволы
+3. Валидационное значение
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Спецсимволы
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Валидационное значение
+4. Спецсимволы</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Дефис 2 раза подряд в теле
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vl--ad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Дефис 2 раза подряд в домене
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@ma--il.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Точка 2 раза подряд в теле
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vl..ad9710@mail.ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Точка 2 раза подряд в домене
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. vlad9710@mail..ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1. Валидационное значение
+2. Валидационное значение
+3. Поле не начинается с буквы или цифры
+4. Валидационное значение</t>
+  </si>
+  <si>
+    <t>1. Vladislav
+2. Voronin
+3. -vlad9710@mail..ru
+4. Pass123</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>Что проверяем</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Тест id 1.1</t>
+  </si>
+  <si>
+    <t>Тест id 1.2</t>
+  </si>
+  <si>
+    <t>Тест id 1.3</t>
+  </si>
+  <si>
+    <t>Тест id 1.4</t>
+  </si>
+  <si>
+    <t>Тест id 1.5</t>
+  </si>
+  <si>
+    <t>Тест id 2.1</t>
+  </si>
+  <si>
+    <t>Тест id 2.2</t>
+  </si>
+  <si>
+    <t>Тест id 2.3</t>
+  </si>
+  <si>
+    <t>Тест id 2.4</t>
+  </si>
+  <si>
+    <t>Тест id 2.5</t>
+  </si>
+  <si>
+    <t>Тест id 2.6</t>
+  </si>
+  <si>
+    <t>Тест id 2.7</t>
+  </si>
+  <si>
+    <t>Тест id 2.8</t>
+  </si>
+  <si>
+    <t>Тест id 2.9</t>
+  </si>
+  <si>
+    <t>Тест id 2.10</t>
+  </si>
+  <si>
+    <t>Тест id 2.11</t>
+  </si>
+  <si>
+    <t>Тест id 2.12</t>
+  </si>
+  <si>
+    <t>Тест id 2.13</t>
+  </si>
+  <si>
+    <t>Тест id 2.14</t>
+  </si>
+  <si>
+    <t>Тест id 2.15</t>
+  </si>
+  <si>
+    <t>Тест id 2.16</t>
+  </si>
+  <si>
+    <t>Тест id 2.17</t>
+  </si>
+  <si>
+    <t>Тест id 2.18</t>
+  </si>
+  <si>
+    <t>Тест id 2.19</t>
+  </si>
+  <si>
+    <t>Тест id 2.20</t>
+  </si>
+  <si>
+    <t>Тест id 2.21</t>
+  </si>
+  <si>
+    <t>Тест id 2.22</t>
+  </si>
+  <si>
+    <t>Тест id 2.23</t>
+  </si>
+  <si>
+    <t>Тест id 2.24</t>
+  </si>
+  <si>
+    <t>Тест id 2.25</t>
+  </si>
+  <si>
+    <t>Тест id 2.26</t>
+  </si>
+  <si>
+    <t>Тест id 2.27</t>
+  </si>
+  <si>
+    <t>Тест id 2.28</t>
+  </si>
+  <si>
+    <t>Тест id 2.29</t>
+  </si>
+  <si>
+    <t>Тест id 2.30</t>
+  </si>
+  <si>
+    <t>1. Наличие дефиса, Регистрозависимость. 
+Граничные значения (4 символа)
+2. Наличие дефиса, Регистрозависимость. 
+Граничные значения (4 символа)
+3. Заполнение формы из буфера обмена. Email начинается с цифры. Граничное значение тела (5 символов)  домена ( 5 символа)
+4. Граничное значение поля Password (7 символов)</t>
+  </si>
+  <si>
+    <t>1. Регистрозависимость. Наличие дефиса. 
+Граничное значение (17 символов)
+2. Регистрозависимость. Наличие дефиса. 
+Граничное значение (17 символов)
+3. Цифры, дефис и точку до доменной части. Граничное значение тела (15 символов), домена (15 символа)
+4. Граничное значение поля Password (15 символов)</t>
   </si>
   <si>
     <r>
@@ -391,232 +815,348 @@
       </rPr>
       <t xml:space="preserve"> Заполнение формы из буфера обмена. Регистрозависимость. Граничное значение ( 3 символа)
 2. Заполнение формы из буфера обмена. Регистрозависимость. Граничное значение ( 3 символа)
-3. Начинается с буквы. Граничное значение тела (4 символов), домена ( 4 символа)
+3. Начинается с буквы. Граничное значение тела (4 символов), 
+домена ( 4 символа)
 4. Граничное значение поля Password (6 символов)</t>
     </r>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>bug#1</t>
+  </si>
+  <si>
+    <t>bug#2</t>
+  </si>
+  <si>
+    <t>Наименование поля</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Форма не отрабатывает валидационное значение</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>Prioruty</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Windows 10.0.19042
+Chrome Версия 100.0.4896.127 (Официальная сборка), (64 бит)</t>
+  </si>
+  <si>
+    <t>Preconditioin</t>
+  </si>
+  <si>
+    <t>Зайти на сайт http://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
     <t>1. AnN
-2. NaN
+2. AnN
 3. vlad@i.ru
 4. Pas123</t>
   </si>
   <si>
-    <t>1. Наличие дефиса, Регистрозависимость. Граничные значения (4 символа)
-2. Наличие дефиса, Регистрозависимость. Граничные значения (4 символа)
-3. Заполнение формы из буфера обмена. Email начинается с цифры. Граничное значение тела (5 символов)  домена ( 5 символа)
-4. Граничное значение поля Password (7 символов)</t>
-  </si>
-  <si>
-    <t>1. Vl-a
-2. V-Or
+    <t>Появится надпись "Success! Hello: Ann Ann"</t>
+  </si>
+  <si>
+    <t>Step to require</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Success! Hello: Ann Ann</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Error: Error: All Fields are Required</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> AnN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> AnN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad@i.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pas123</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Vl-A
+2. V-OR
 3. 9vlad@iu.ru
 4. PAss123</t>
   </si>
   <si>
-    <t>1. VlaDiSlav-VoRoNin
-2. VlaDiSlav-VoRoNin
-3. v_l.a_d97101111@qweqweqweqwe.ru
-4. Password0123456</t>
-  </si>
-  <si>
-    <t>1. Регистрозависимость. Наличие дефиса. Граничное значение (17 символов)
-2. Регистрозависимость. Наличие дефиса. Граничное значение (17 символов)
-3. Цифры, дефис и точку до доменной части. Граничное значение тела (15 символов), домена (15 символа)
-4. Граничное значение поля Password (15 символов)</t>
-  </si>
-  <si>
-    <t>1. Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
-2. Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
-3. Дефис в доменной части. Граничное значение тела (16 символов), домена (16 символа)
-4. Граничное значение поля Password (16 символов)</t>
-  </si>
-  <si>
-    <t>1. Vladislav-VoroninV
-2. Vladislav-VoroninV
+    <t>Done</t>
+  </si>
+  <si>
+    <t>В сообщении об успешной регистрации отображать имя и фамилию с большой буквы ( а также добавить заглавную букву для двойных имен и фамилий после дефиса. Например: "Ева-Оливия", "Эмилия-Анна" )</t>
+  </si>
+  <si>
+    <t>Улучшение#3</t>
+  </si>
+  <si>
+    <t>1. Vladislav-Voroninv
+2. Vladislav-Voroninv
 3. v_l.a_d9710qqqqq@qqqqqweq-eqwe.ru
 4. Password01234567</t>
   </si>
   <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Граничное значение в теле (17 символов)
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. qqqqqqqqqqqqqqqqq@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. qqq@i.u
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Граничное значение в домене (17 символа)
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. qqq@qqqqqqqqqqqqqq.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Граничное значение (5 символов)</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. Pass1</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Граничное значение (17 символов)</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. Passssssssssssss1</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. password1</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Не вводим заглавную букву</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Не вводим цифру</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. Password</t>
-  </si>
-  <si>
-    <t>1. Спецсимволы
-2. Валидационное значение
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. "(%;*;
-2. Voronin
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. "(%;*;
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. "(%;*;
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. "(%;*;</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Спецсимволы
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Спецсимволы
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Спецсимволы</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Дефис 2 раза подряд в теле
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vl--ad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Дефис 2 раза подряд в домене
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@ma--il.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Точка 2 раза подряд в теле
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vl..ad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Точка 2 раза подряд в домене
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail..ru
-4. Pass123</t>
+    <t>Появится надпись "Success! Hello: Vladislav-Voroninv Vladislav-Voroninv"</t>
+  </si>
+  <si>
+    <t>Чтоб вместо общей ошибки о неверном заполнении всех полей указывало на конкретную ошибку в конкретном поле</t>
+  </si>
+  <si>
+    <t>Success! Hello: Vladislav</t>
+  </si>
+  <si>
+    <t>How to fix</t>
+  </si>
+  <si>
+    <t>Задать минимальное значение для поля Name - 3 символа,  для поля Surname, если оно не пустое, - 3 символа</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad@i.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pas123</t>
+    </r>
+  </si>
+  <si>
+    <t>Добавить для поля Surname возможность быть пустым</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,8 +1208,76 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,8 +1296,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -749,20 +1363,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,9 +1531,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -787,28 +1539,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1123,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B39B6-8AD6-4C8F-BBB7-E4D22CCDEA64}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="A1:B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1983,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1176,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,10 +2046,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1238,7 +2080,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1266,10 +2108,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1290,13 +2132,13 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +2194,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,10 +2206,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1442,190 +2284,194 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="34" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>30</v>
+      <c r="B4" s="34" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
+      <c r="B5" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1635,686 +2481,729 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D093250-EA65-47A5-B792-4562C1EFC6FD}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="93.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="65.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="93.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="D31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="C35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>5</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>6</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>8</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>9</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>10</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>11</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>12</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>13</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>14</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="4" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>15</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>16</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="D45" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>17</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>18</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>19</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>20</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>21</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>22</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>23</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>24</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>25</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>26</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>27</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>28</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>29</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="D46" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>30</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>31</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>32</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>33</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>34</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>35</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>36</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>37</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>38</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>39</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>40</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>41</v>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>42</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>43</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>44</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="31"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="31"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="31"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="31"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A11:D11"/>
+  <mergeCells count="3">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2322,24 +3211,640 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95024382-1E9E-458B-A125-7BDA064F6CC9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>31</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" location="'Баг-репорты'!A2" display="bug#1" xr:uid="{B0844C90-C3F5-4098-A5F7-F6D19CFD176E}"/>
+    <hyperlink ref="D4" location="'Предлагаемые улучшения'!A4" display="Улучшение#3" xr:uid="{3F7C33D7-671B-47AB-BA65-57F8533D2FF6}"/>
+    <hyperlink ref="D7" location="'Баг-репорты'!A10" display="bug#2" xr:uid="{3E72B7D6-1E2A-41FC-9315-1252EAC2A4D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F10681-1226-405D-B263-A11677354A1A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
+        <v>2</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repository\Ksendzov_group_27\Web form testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222486B2-7D5E-44BA-9C13-EDE74A82193B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A83018-E941-4EC9-A94A-72C68898D09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,6 +1276,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1511,7 +1520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1544,12 +1553,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1559,24 +1562,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1596,10 +1581,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1628,15 +1609,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1647,6 +1619,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1965,7 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B39B6-8AD6-4C8F-BBB7-E4D22CCDEA64}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1983,10 +1995,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -2046,10 +2058,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2108,10 +2120,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="42"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2206,10 +2218,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="42"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -2305,7 +2317,7 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2313,7 +2325,7 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2321,7 +2333,7 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="24" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2329,7 +2341,7 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="24" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2489,65 +2501,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="65.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="93.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
+      <c r="A1" s="14"/>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2555,14 +2567,14 @@
       <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2576,7 +2588,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2590,7 +2602,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2604,7 +2616,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2618,7 +2630,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2635,14 +2647,14 @@
       <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2656,7 +2668,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2670,7 +2682,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2684,7 +2696,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2698,7 +2710,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2712,7 +2724,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2726,7 +2738,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2740,7 +2752,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2754,7 +2766,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2768,7 +2780,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2782,7 +2794,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2796,7 +2808,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2810,7 +2822,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2824,7 +2836,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2838,7 +2850,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2852,7 +2864,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2866,7 +2878,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2880,7 +2892,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2894,7 +2906,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2908,7 +2920,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2922,7 +2934,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -2936,7 +2948,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2950,7 +2962,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2964,7 +2976,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2978,7 +2990,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2992,7 +3004,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3006,7 +3018,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -3020,7 +3032,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3034,7 +3046,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -3048,154 +3060,154 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3213,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95024382-1E9E-458B-A125-7BDA064F6CC9}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,16 +3238,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="17" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3243,23 +3255,23 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="53" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3267,13 +3279,13 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>150</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="54" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3281,19 +3293,19 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3305,13 +3317,13 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>153</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="53" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3319,17 +3331,17 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>154</v>
       </c>
       <c r="C9" s="8"/>
@@ -3339,7 +3351,7 @@
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>155</v>
       </c>
       <c r="C10" s="8"/>
@@ -3349,7 +3361,7 @@
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>156</v>
       </c>
       <c r="C11" s="8"/>
@@ -3359,7 +3371,7 @@
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>157</v>
       </c>
       <c r="C12" s="8"/>
@@ -3369,7 +3381,7 @@
       <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C13" s="8"/>
@@ -3379,7 +3391,7 @@
       <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>159</v>
       </c>
       <c r="C14" s="8"/>
@@ -3389,7 +3401,7 @@
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>160</v>
       </c>
       <c r="C15" s="8"/>
@@ -3399,7 +3411,7 @@
       <c r="A16" s="8">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>161</v>
       </c>
       <c r="C16" s="8"/>
@@ -3409,7 +3421,7 @@
       <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C17" s="8"/>
@@ -3419,7 +3431,7 @@
       <c r="A18" s="8">
         <v>10</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="8"/>
@@ -3429,7 +3441,7 @@
       <c r="A19" s="8">
         <v>11</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>164</v>
       </c>
       <c r="C19" s="8"/>
@@ -3439,7 +3451,7 @@
       <c r="A20" s="8">
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="8"/>
@@ -3449,7 +3461,7 @@
       <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>166</v>
       </c>
       <c r="C21" s="8"/>
@@ -3459,7 +3471,7 @@
       <c r="A22" s="8">
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>167</v>
       </c>
       <c r="C22" s="8"/>
@@ -3469,7 +3481,7 @@
       <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C23" s="8"/>
@@ -3479,7 +3491,7 @@
       <c r="A24" s="8">
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>169</v>
       </c>
       <c r="C24" s="8"/>
@@ -3489,7 +3501,7 @@
       <c r="A25" s="8">
         <v>17</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C25" s="8"/>
@@ -3499,7 +3511,7 @@
       <c r="A26" s="8">
         <v>18</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C26" s="8"/>
@@ -3509,7 +3521,7 @@
       <c r="A27" s="8">
         <v>19</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>172</v>
       </c>
       <c r="C27" s="8"/>
@@ -3519,7 +3531,7 @@
       <c r="A28" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>173</v>
       </c>
       <c r="C28" s="8"/>
@@ -3529,7 +3541,7 @@
       <c r="A29" s="8">
         <v>21</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>174</v>
       </c>
       <c r="C29" s="8"/>
@@ -3539,7 +3551,7 @@
       <c r="A30" s="8">
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>175</v>
       </c>
       <c r="C30" s="8"/>
@@ -3549,7 +3561,7 @@
       <c r="A31" s="8">
         <v>23</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C31" s="8"/>
@@ -3559,7 +3571,7 @@
       <c r="A32" s="8">
         <v>24</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>177</v>
       </c>
       <c r="C32" s="8"/>
@@ -3569,7 +3581,7 @@
       <c r="A33" s="8">
         <v>25</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="8"/>
@@ -3579,7 +3591,7 @@
       <c r="A34" s="8">
         <v>26</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>179</v>
       </c>
       <c r="C34" s="8"/>
@@ -3589,7 +3601,7 @@
       <c r="A35" s="8">
         <v>27</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>180</v>
       </c>
       <c r="C35" s="8"/>
@@ -3599,7 +3611,7 @@
       <c r="A36" s="8">
         <v>28</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="8"/>
@@ -3609,7 +3621,7 @@
       <c r="A37" s="8">
         <v>29</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>182</v>
       </c>
       <c r="C37" s="8"/>
@@ -3619,7 +3631,7 @@
       <c r="A38" s="8">
         <v>30</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>183</v>
       </c>
       <c r="C38" s="8"/>
@@ -3642,7 +3654,7 @@
   <hyperlinks>
     <hyperlink ref="D3" location="'Баг-репорты'!A2" display="bug#1" xr:uid="{B0844C90-C3F5-4098-A5F7-F6D19CFD176E}"/>
     <hyperlink ref="D4" location="'Предлагаемые улучшения'!A4" display="Улучшение#3" xr:uid="{3F7C33D7-671B-47AB-BA65-57F8533D2FF6}"/>
-    <hyperlink ref="D7" location="'Баг-репорты'!A10" display="bug#2" xr:uid="{3E72B7D6-1E2A-41FC-9315-1252EAC2A4D4}"/>
+    <hyperlink ref="D7" location="'Баг-репорты'!A11" display="bug#2" xr:uid="{3E72B7D6-1E2A-41FC-9315-1252EAC2A4D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3654,7 +3666,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3664,179 +3676,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="26" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="50">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="27" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="28" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="29" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="31" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="32" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="39" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="50">
         <v>2</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="27" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="28" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="28" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="29" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="31" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="32" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="36" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="33" t="s">
         <v>221</v>
       </c>
     </row>

--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repository\Ksendzov_group_27\Web form testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A83018-E941-4EC9-A94A-72C68898D09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1412E7-75C1-4948-9A88-D11B3E7B77D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="253">
   <si>
     <t>№</t>
   </si>
@@ -830,9 +830,6 @@
     <t>bug#2</t>
   </si>
   <si>
-    <t>Наименование поля</t>
-  </si>
-  <si>
     <t>Описание</t>
   </si>
   <si>
@@ -1150,6 +1147,544 @@
   </si>
   <si>
     <t>Добавить для поля Surname возможность быть пустым</t>
+  </si>
+  <si>
+    <t>bug#3</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pas123</t>
+    </r>
+  </si>
+  <si>
+    <t>Success! Hello: Vladislav Voronin</t>
+  </si>
+  <si>
+    <t>Сделать поле Email обязательным для входа</t>
+  </si>
+  <si>
+    <t>Форма пропускает валидацию без ввода email</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Сдвинута надпись кнопка Submit</t>
+  </si>
+  <si>
+    <t>Нестандартное поведение кнопки Submit</t>
+  </si>
+  <si>
+    <t>Кнопка выделяется полностью</t>
+  </si>
+  <si>
+    <t>Кнопка выделяется постепенно</t>
+  </si>
+  <si>
+    <t>Опечатка</t>
+  </si>
+  <si>
+    <t>Surame</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>Видео</t>
+  </si>
+  <si>
+    <t>Надпись в кнопке Submit находится посередине</t>
+  </si>
+  <si>
+    <t>Надпись в кнопке Submit сдвинута вправо</t>
+  </si>
+  <si>
+    <t>Форма пропускает валидацию без ввода password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Сделать поле Password обязательным для входа</t>
+  </si>
+  <si>
+    <t>bug#7</t>
+  </si>
+  <si>
+    <t>Поле Name пропускает значение с буквами, отличными от латинского</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Владислав
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pass123</t>
+    </r>
+  </si>
+  <si>
+    <t>Success! Hello: Владислав Voronin</t>
+  </si>
+  <si>
+    <t>Поле Surname пропускает значение с буквами, отличными от латинского</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Vladislav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Воронин
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pass123</t>
+    </r>
+  </si>
+  <si>
+    <t>bug#8</t>
+  </si>
+  <si>
+    <t>bug#9</t>
+  </si>
+  <si>
+    <t>Success! Hello: Vladislav Воронин</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1515,12 +2050,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1620,6 +2168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1656,10 +2208,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1995,10 +2551,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -2058,10 +2614,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="44"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2120,10 +2676,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="44"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2218,10 +2774,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="42"/>
+      <c r="B31" s="44"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -2296,7 +2852,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2346,11 +2902,11 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D093250-EA65-47A5-B792-4562C1EFC6FD}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,10 +3072,10 @@
       <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -2567,11 +3123,11 @@
       <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -2581,10 +3137,10 @@
         <v>186</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -2595,7 +3151,7 @@
         <v>184</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>53</v>
@@ -2623,10 +3179,10 @@
         <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2647,11 +3203,11 @@
       <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -3225,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95024382-1E9E-458B-A125-7BDA064F6CC9}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,11 +3811,11 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -3271,7 +3827,7 @@
       <c r="C3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="41" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3283,10 +3839,10 @@
         <v>150</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,7 +3853,7 @@
         <v>151</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -3309,7 +3865,7 @@
         <v>152</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -3323,7 +3879,7 @@
       <c r="C7" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="41" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3331,11 +3887,11 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -3344,7 +3900,9 @@
       <c r="B9" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3354,7 +3912,9 @@
       <c r="B10" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,8 +3924,12 @@
       <c r="B11" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -3374,8 +3938,12 @@
       <c r="B12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -3384,8 +3952,12 @@
       <c r="B13" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -3394,8 +3966,12 @@
       <c r="B14" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -3655,6 +4231,10 @@
     <hyperlink ref="D3" location="'Баг-репорты'!A2" display="bug#1" xr:uid="{B0844C90-C3F5-4098-A5F7-F6D19CFD176E}"/>
     <hyperlink ref="D4" location="'Предлагаемые улучшения'!A4" display="Улучшение#3" xr:uid="{3F7C33D7-671B-47AB-BA65-57F8533D2FF6}"/>
     <hyperlink ref="D7" location="'Баг-репорты'!A11" display="bug#2" xr:uid="{3E72B7D6-1E2A-41FC-9315-1252EAC2A4D4}"/>
+    <hyperlink ref="D11" location="'Баг-репорты'!A20" display="bug#3" xr:uid="{7E2A2EA4-B975-4AC2-83D7-1F971652E231}"/>
+    <hyperlink ref="D12" location="'Баг-репорты'!A52" display="bug#7" xr:uid="{B5B9F071-0BF3-4B4C-8A86-C17A64427DC6}"/>
+    <hyperlink ref="D13" location="'Баг-репорты'!A61" display="bug#8" xr:uid="{D18B92F2-CECA-4F3F-A4D7-5FAE876E166F}"/>
+    <hyperlink ref="D14" location="'Баг-репорты'!A69" display="bug#9" xr:uid="{6502581B-62AD-4400-B312-CC53AE09DD2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3663,200 +4243,738 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F10681-1226-405D-B263-A11677354A1A}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="3" max="3" width="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="27" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="35" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="28" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="28" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="35" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="29" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="35" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="40" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52">
+        <v>2</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
+      <c r="B16" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="37" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="40" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
-        <v>2</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="C18" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="52">
+        <v>3</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="35" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="C21" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="35" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="35" t="s">
+      <c r="C22" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="28" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="35" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="35" t="s">
+      <c r="C23" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="29" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="35" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="35" t="s">
+      <c r="C24" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="35" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="40" t="s">
+      <c r="C26" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="36" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="54"/>
+      <c r="B28" s="38" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>221</v>
+      <c r="C28" s="33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="52">
+        <v>4</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="54"/>
+      <c r="B36" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="52">
+        <v>5</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="54"/>
+      <c r="B44" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
+        <v>6</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="53"/>
+      <c r="B47" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="54"/>
+      <c r="B51" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="52">
+        <v>7</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
+      <c r="B53" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="54"/>
+      <c r="B60" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="52">
+        <v>8</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="53"/>
+      <c r="B62" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="53"/>
+      <c r="B63" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="53"/>
+      <c r="B66" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="53"/>
+      <c r="B67" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="54"/>
+      <c r="B68" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="52">
+        <v>9</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="53"/>
+      <c r="B70" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="53"/>
+      <c r="B71" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="53"/>
+      <c r="B72" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="53"/>
+      <c r="B73" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="53"/>
+      <c r="B75" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="54"/>
+      <c r="B76" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="57" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A69:A76"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A44"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{A24A17E6-EBB0-4654-BECE-C04451002AE6}"/>
+    <hyperlink ref="C44" r:id="rId2" location="/view/3dp44wavp" xr:uid="{66AD88BA-8637-492A-8D90-ACD068DA06B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repository\Ksendzov_group_27\Web form testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1412E7-75C1-4948-9A88-D11B3E7B77D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5905B4B-C764-49B8-9B7E-119C10139149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="254">
   <si>
     <t>№</t>
   </si>
@@ -133,105 +133,9 @@
     <t>Негативные кейсы</t>
   </si>
   <si>
-    <t>1. Пустое значение
-2. Пустое значение
-3. Пустое значение
-4. Пустое значение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 
-2. 
-3. 
-4. </t>
-  </si>
-  <si>
     <t>Появится надпись "Error: Error: All Fields are Required"</t>
   </si>
   <si>
-    <t>1. Пустое значение
-2. Валидационное значение
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. 
-2. Voronin
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. 
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Пустое значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Пустое значение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. </t>
-  </si>
-  <si>
-    <t>1. Владислав
-2. Voronin
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Буквы не латинского алфавита
-2. Валидационное значение
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Воронин
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Буквы не латинского алфавита
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Буквы не латинского алфавита
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. емейл@мейл.ру
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Буквы не латинского алфавита</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. Пароль123</t>
-  </si>
-  <si>
     <t>Поле не может содержать более 18 символов</t>
   </si>
   <si>
@@ -250,30 +154,15 @@
     <t>Появится надпись "Success! Hello: Vladislav-Voronin Vladislav-Voronin"</t>
   </si>
   <si>
-    <t>1. Vladislav
-2. 
-3. vlad0@ru
-4. Pas123</t>
-  </si>
-  <si>
     <t>Появится надпись "Success! Hello: Vladislav"</t>
   </si>
   <si>
-    <t>1. Валидное значение
-2. Пустое поле
-3. Валидное значение
-4. Валидное значение</t>
-  </si>
-  <si>
     <t>Name = 1</t>
   </si>
   <si>
     <t>Surname = 2</t>
   </si>
   <si>
-    <t>Email = 3</t>
-  </si>
-  <si>
     <t>Password = 4</t>
   </si>
   <si>
@@ -286,72 +175,6 @@
     <t>Добавить надпись об обязательных полях для заполнения</t>
   </si>
   <si>
-    <t>1. Граничное значение (2 символа)
-2. Валидационное значение
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vl
-2. Voronin
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Граничное значение (19 символа)
-2. Валидационное значение
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. VladislavVladislavV
-2. Voronin
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Граничное значение (2 символа)
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Vo
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Граничное значение (18 символа)
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. VladislavVladislavV
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Граничное значение в домене (3 символа)
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. qqq@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Граничное значение в теле (3 символа)
-4. Валидационное значение</t>
-  </si>
-  <si>
     <t>Тело не может содержать менее 4 символов</t>
   </si>
   <si>
@@ -361,306 +184,6 @@
     <t>Доменная часть не может содержать более 16 символов</t>
   </si>
   <si>
-    <t>1. VlaDiSlav-VoRoNin
-2. VlaDiSlav-VoRoNin
-3. v_l.a_d97101111@qweqweqweqwe.ru
-4. Password0123456</t>
-  </si>
-  <si>
-    <t>1. Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
-2. Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
-3. Дефис в доменной части. Граничное значение тела (16 символов), домена (16 символа)
-4. Граничное значение поля Password (16 символов)</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Граничное значение в теле (17 символов)
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. qqqqqqqqqqqqqqqqq@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. qqq@i.u
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Граничное значение в домене (17 символа)
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. qqq@qqqqqqqqqqqqqq.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Граничное значение (5 символов)</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. Pass1</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Граничное значение (17 символов)</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. Passssssssssssss1</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. password1</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Не вводим заглавную букву</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Не вводим цифру</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. Password</t>
-  </si>
-  <si>
-    <t>1. Спецсимволы
-2. Валидационное значение
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. "(%;*;
-2. Voronin
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. "(%;*;
-3. vlad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. "(%;*;
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail.ru
-4. "(%;*;</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Спецсимволы
-3. Валидационное значение
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Спецсимволы
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Валидационное значение
-4. Спецсимволы</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Дефис 2 раза подряд в теле
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vl--ad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Дефис 2 раза подряд в домене
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@ma--il.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Точка 2 раза подряд в теле
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vl..ad9710@mail.ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Точка 2 раза подряд в домене
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. vlad9710@mail..ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1. Валидационное значение
-2. Валидационное значение
-3. Поле не начинается с буквы или цифры
-4. Валидационное значение</t>
-  </si>
-  <si>
-    <t>1. Vladislav
-2. Voronin
-3. -vlad9710@mail..ru
-4. Pass123</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
     <t>Что проверяем</t>
   </si>
   <si>
@@ -773,52 +296,6 @@
   </si>
   <si>
     <t>Тест id 2.30</t>
-  </si>
-  <si>
-    <t>1. Наличие дефиса, Регистрозависимость. 
-Граничные значения (4 символа)
-2. Наличие дефиса, Регистрозависимость. 
-Граничные значения (4 символа)
-3. Заполнение формы из буфера обмена. Email начинается с цифры. Граничное значение тела (5 символов)  домена ( 5 символа)
-4. Граничное значение поля Password (7 символов)</t>
-  </si>
-  <si>
-    <t>1. Регистрозависимость. Наличие дефиса. 
-Граничное значение (17 символов)
-2. Регистрозависимость. Наличие дефиса. 
-Граничное значение (17 символов)
-3. Цифры, дефис и точку до доменной части. Граничное значение тела (15 символов), домена (15 символа)
-4. Граничное значение поля Password (15 символов)</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Заполнение формы из буфера обмена. Регистрозависимость. Граничное значение ( 3 символа)
-2. Заполнение формы из буфера обмена. Регистрозависимость. Граничное значение ( 3 символа)
-3. Начинается с буквы. Граничное значение тела (4 символов), 
-домена ( 4 символа)
-4. Граничное значение поля Password (6 символов)</t>
-    </r>
   </si>
   <si>
     <t>Fail</t>
@@ -864,16 +341,7 @@
     <t>Зайти на сайт http://itcareer.pythonanywhere.com/</t>
   </si>
   <si>
-    <t>1. AnN
-2. AnN
-3. vlad@i.ru
-4. Pas123</t>
-  </si>
-  <si>
     <t>Появится надпись "Success! Hello: Ann Ann"</t>
-  </si>
-  <si>
-    <t>Step to require</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -999,12 +467,6 @@
     </r>
   </si>
   <si>
-    <t>1. Vl-A
-2. V-OR
-3. 9vlad@iu.ru
-4. PAss123</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -1012,12 +474,6 @@
   </si>
   <si>
     <t>Улучшение#3</t>
-  </si>
-  <si>
-    <t>1. Vladislav-Voroninv
-2. Vladislav-Voroninv
-3. v_l.a_d9710qqqqq@qqqqqweq-eqwe.ru
-4. Password01234567</t>
   </si>
   <si>
     <t>Появится надпись "Success! Hello: Vladislav-Voroninv Vladislav-Voroninv"</t>
@@ -1284,9 +740,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Сдвинута надпись кнопка Submit</t>
-  </si>
-  <si>
     <t>Нестандартное поведение кнопки Submit</t>
   </si>
   <si>
@@ -1685,6 +1138,1405 @@
   </si>
   <si>
     <t>Success! Hello: Vladislav Воронин</t>
+  </si>
+  <si>
+    <t>Step to reproduce</t>
+  </si>
+  <si>
+    <t>Сдвинута надпись кнопки Submit</t>
+  </si>
+  <si>
+    <t>При вводе в поле Name (surname)  граничного значения 3 символа не удается пройти регистрацию</t>
+  </si>
+  <si>
+    <t>Name:1</t>
+  </si>
+  <si>
+    <t>Name:2</t>
+  </si>
+  <si>
+    <t>Name:3</t>
+  </si>
+  <si>
+    <t>Name:4</t>
+  </si>
+  <si>
+    <t>Name:5</t>
+  </si>
+  <si>
+    <t>Surname:1</t>
+  </si>
+  <si>
+    <t>Surname:2</t>
+  </si>
+  <si>
+    <t>Surname:3</t>
+  </si>
+  <si>
+    <t>Surname:4</t>
+  </si>
+  <si>
+    <t>Surname:5</t>
+  </si>
+  <si>
+    <t>Surname:6</t>
+  </si>
+  <si>
+    <t>Surname:7</t>
+  </si>
+  <si>
+    <t>Surname:8</t>
+  </si>
+  <si>
+    <t>Surname:9</t>
+  </si>
+  <si>
+    <t>Surname:10</t>
+  </si>
+  <si>
+    <t>Surname:11</t>
+  </si>
+  <si>
+    <t>Surname:12</t>
+  </si>
+  <si>
+    <t>Surname:13</t>
+  </si>
+  <si>
+    <t>Surname:14</t>
+  </si>
+  <si>
+    <t>Surname:15</t>
+  </si>
+  <si>
+    <t>Surname:16</t>
+  </si>
+  <si>
+    <t>Surname:17</t>
+  </si>
+  <si>
+    <t>Surname:18</t>
+  </si>
+  <si>
+    <t>Surname:19</t>
+  </si>
+  <si>
+    <t>Surname:20</t>
+  </si>
+  <si>
+    <t>Surname:21</t>
+  </si>
+  <si>
+    <t>Surname:22</t>
+  </si>
+  <si>
+    <t>Surname:23</t>
+  </si>
+  <si>
+    <t>Surname:24</t>
+  </si>
+  <si>
+    <t>Surname:25</t>
+  </si>
+  <si>
+    <t>Surname:26</t>
+  </si>
+  <si>
+    <t>Surname:27</t>
+  </si>
+  <si>
+    <t>Surname:28</t>
+  </si>
+  <si>
+    <t>Surname:29</t>
+  </si>
+  <si>
+    <t>Email:  = 3</t>
+  </si>
+  <si>
+    <t>Name: Пустое значение
+Surname: Пустое значение
+Email:  Пустое значение
+Password: Пустое значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: 
+Surname: 
+Email:  
+Password: </t>
+  </si>
+  <si>
+    <t>Name: Пустое значение
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: 
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Пустое значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Пустое значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Vladislav
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: </t>
+  </si>
+  <si>
+    <t>Name: Буквы не латинского алфавита
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Владислав
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Буквы не латинского алфавита
+Email:  Валидационное значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Воронин
+Email:  vlad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Буквы не латинского алфавита
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  емейл@мейл.ру
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Буквы не латинского алфавита</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: Пароль123</t>
+  </si>
+  <si>
+    <t>Name: Граничное значение (2 символа)
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vl
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Граничное значение (19 символа)
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: VladislavVladislavV
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Граничное значение (2 символа)
+Email:  Валидационное значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Vo
+Email:  vlad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Граничное значение (18 символа)
+Email:  Валидационное значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: VladislavVladislavV
+Email:  vlad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Граничное значение в теле (3 символа)
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  qqq@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Граничное значение в теле (17 символов)
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  qqqqqqqqqqqqqqqqq@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Граничное значение в домене (3 символа)
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  qqq@i.u
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Граничное значение в домене (17 символа)
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  qqq@qqqqqqqqqqqqqq.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Граничное значение (5 символов)</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: Pass1</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Граничное значение (17 символов)</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: Passssssssssssss1</t>
+  </si>
+  <si>
+    <t>Name: Спецсимволы
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: "(%;*;
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Спецсимволы
+Email:  Валидационное значение
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: "(%;*;
+Email:  vlad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Спецсимволы
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  "(%;*;
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Спецсимволы</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: "(%;*;</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Дефис 2 раза подряд в теле
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vl--ad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Дефис 2 раза подряд в домене
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vlad9710@ma--il.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Точка 2 раза подряд в теле
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vl..ad9710@mail.ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Точка 2 раза подряд в домене
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vlad9710@mail..ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Поле не начинается с буквы или цифры
+Password: Валидационное значение</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  -vlad9710@mail..ru
+Password: Pass123</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Не вводим заглавную букву</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: password1</t>
+  </si>
+  <si>
+    <t>Name: Валидационное значение
+Surname: Валидационное значение
+Email:  Валидационное значение
+Password: Не вводим цифру</t>
+  </si>
+  <si>
+    <t>Name: Vladislav
+Surname: Voronin
+Email:  vlad9710@mail.ru
+Password: Password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Заполнение формы из буфера обмена. Регистрозависимость. Граничное значение ( 3 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Заполнение формы из буфера обмена. Регистрозависимость. Граничное значение ( 3 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Начинается с буквы. Граничное значение тела (4 символов), 
+домена ( 4 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Граничное значение поля Password (6 символов)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: AnN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: AnN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad@i.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pas123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vl-A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: V-OR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  9vlad@iu.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: PAss123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Наличие дефиса, Регистрозависимость. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Граничные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> значения (4 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Наличие дефиса, Регистрозависимость. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Граничные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> значения (4 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Заполнение формы из буфера обмена. Email:  начинается с цифры. Граничное значение тела (5 символов)  домена ( 5 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Граничное значение поля Password (7 символов)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: VlaDiSlav-VoRoNin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: VlaDiSlav-VoRoNin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  v_l.a_d97101111@qweqweqweqwe.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Password0123456</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Регистрозависимость. Наличие дефиса. 
+Граничное значение (17 символов)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Регистрозависимость. Наличие дефиса. 
+Граничное значение (17 символов)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Цифры, дефис и точку до доменной части. Граничное значение тела (15 символов), домена (15 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Граничное значение поля Password (15 символов)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav-Voroninv
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav-Voroninv
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  v_l.a_d9710qqqqq@qqqqqweq-eqwe.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Password01234567</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad0@ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pas123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Заполнение формы из буфера обмена. Наличие дефиса. Граничное значение (18 символов)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Дефис в доменной части. Граничное значение тела (16 символов), домена (16 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Граничное значение поля Password (16 символов)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Пустое поле
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидное значение</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2068,7 +2920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2172,6 +3024,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2208,14 +3071,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2551,10 +3409,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -2586,7 +3444,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2594,7 +3452,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,10 +3472,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2648,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +3514,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,10 +3534,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="49"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2700,13 +3558,13 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +3572,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +3620,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,10 +3632,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="49"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -2890,7 +3748,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2898,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -2906,7 +3764,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3051,8 +3909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D093250-EA65-47A5-B792-4562C1EFC6FD}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,10 +3930,10 @@
       <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -3084,25 +3942,25 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="11" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="11" t="s">
-        <v>60</v>
+      <c r="B7" s="60" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="11" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -3123,496 +3981,496 @@
       <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3798,37 +4656,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3836,13 +4694,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3850,10 +4708,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -3862,10 +4720,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -3874,34 +4732,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -3910,10 +4768,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -3922,13 +4780,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,13 +4794,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3950,13 +4808,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,13 +4822,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,7 +4836,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -3988,7 +4846,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -3998,7 +4856,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -4008,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4018,7 +4876,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4028,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -4038,7 +4896,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4048,7 +4906,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -4058,7 +4916,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4068,7 +4926,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4078,7 +4936,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4088,7 +4946,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4098,7 +4956,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -4108,7 +4966,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4118,7 +4976,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -4128,7 +4986,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -4138,7 +4996,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -4148,7 +5006,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -4158,7 +5016,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -4168,7 +5026,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -4178,7 +5036,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -4188,7 +5046,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -4198,7 +5056,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -4208,7 +5066,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -4245,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F10681-1226-405D-B263-A11677354A1A}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4263,700 +5121,700 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>192</v>
+        <v>91</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="35" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="35" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="35" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="35" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="35" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="35" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="40" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="38" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="A11" s="57">
         <v>2</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="35" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="35" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="35" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="35" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="35" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="35" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="40" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="38" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>220</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20" s="57">
         <v>3</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="35" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="35" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="35" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="35" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="35" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="35" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="40" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="38" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="52">
+      <c r="A29" s="57">
         <v>4</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="35" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="35" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="35" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="35" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="35" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="40" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>239</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>237</v>
+      <c r="A36" s="59"/>
+      <c r="B36" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="52">
+      <c r="A37" s="57">
         <v>5</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="35" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="35" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="35" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="35" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="35" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="40" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>238</v>
+      <c r="A44" s="59"/>
+      <c r="B44" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="52">
+      <c r="A45" s="57">
         <v>6</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="35" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="35" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="35" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="35" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="35" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>235</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>236</v>
+      <c r="A51" s="59"/>
+      <c r="B51" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="52">
+      <c r="A52" s="57">
         <v>7</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="35" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="35" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="35" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="35" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="35" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>242</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="35" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="40" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="38" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="52">
+      <c r="A61" s="57">
         <v>8</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="35" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="35" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="35" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="35" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="35" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="35" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="54"/>
-      <c r="B68" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68" s="57" t="s">
-        <v>207</v>
+      <c r="A68" s="59"/>
+      <c r="B68" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="52">
+      <c r="A69" s="57">
         <v>9</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="35" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="35" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="35" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="35" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="35" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="35" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
-      <c r="B76" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" s="57" t="s">
-        <v>207</v>
+      <c r="A76" s="59"/>
+      <c r="B76" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4976,5 +5834,6 @@
     <hyperlink ref="C44" r:id="rId2" location="/view/3dp44wavp" xr:uid="{66AD88BA-8637-492A-8D90-ACD068DA06B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repository\Ksendzov_group_27\Web form testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5905B4B-C764-49B8-9B7E-119C10139149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E1237C-A7C7-4179-B3BF-55D1E45396D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="253">
   <si>
     <t>№</t>
   </si>
@@ -112,21 +112,12 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Для выполняния тест-кейсов необходимо зайти на сайт http://itcareer.pythonanywhere.com/</t>
-  </si>
-  <si>
     <t>Что тестируем</t>
   </si>
   <si>
     <t>Описание улучшения</t>
   </si>
   <si>
-    <t>Заменить надпись "ITCareerToday web form" на описание валидационной формы. Например : "ITCareerToday registration form"</t>
-  </si>
-  <si>
-    <t>Добавить для поля Password функцию отображения пароля</t>
-  </si>
-  <si>
     <t>Положительные кейсы</t>
   </si>
   <si>
@@ -155,15 +146,6 @@
   </si>
   <si>
     <t>Появится надпись "Success! Hello: Vladislav"</t>
-  </si>
-  <si>
-    <t>Name = 1</t>
-  </si>
-  <si>
-    <t>Surname = 2</t>
-  </si>
-  <si>
-    <t>Password = 4</t>
   </si>
   <si>
     <t>Допускается использование дефиса в доменной части</t>
@@ -470,9 +452,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>В сообщении об успешной регистрации отображать имя и фамилию с большой буквы ( а также добавить заглавную букву для двойных имен и фамилий после дефиса. Например: "Ева-Оливия", "Эмилия-Анна" )</t>
-  </si>
-  <si>
     <t>Улучшение#3</t>
   </si>
   <si>
@@ -1147,459 +1126,6 @@
   </si>
   <si>
     <t>При вводе в поле Name (surname)  граничного значения 3 символа не удается пройти регистрацию</t>
-  </si>
-  <si>
-    <t>Name:1</t>
-  </si>
-  <si>
-    <t>Name:2</t>
-  </si>
-  <si>
-    <t>Name:3</t>
-  </si>
-  <si>
-    <t>Name:4</t>
-  </si>
-  <si>
-    <t>Name:5</t>
-  </si>
-  <si>
-    <t>Surname:1</t>
-  </si>
-  <si>
-    <t>Surname:2</t>
-  </si>
-  <si>
-    <t>Surname:3</t>
-  </si>
-  <si>
-    <t>Surname:4</t>
-  </si>
-  <si>
-    <t>Surname:5</t>
-  </si>
-  <si>
-    <t>Surname:6</t>
-  </si>
-  <si>
-    <t>Surname:7</t>
-  </si>
-  <si>
-    <t>Surname:8</t>
-  </si>
-  <si>
-    <t>Surname:9</t>
-  </si>
-  <si>
-    <t>Surname:10</t>
-  </si>
-  <si>
-    <t>Surname:11</t>
-  </si>
-  <si>
-    <t>Surname:12</t>
-  </si>
-  <si>
-    <t>Surname:13</t>
-  </si>
-  <si>
-    <t>Surname:14</t>
-  </si>
-  <si>
-    <t>Surname:15</t>
-  </si>
-  <si>
-    <t>Surname:16</t>
-  </si>
-  <si>
-    <t>Surname:17</t>
-  </si>
-  <si>
-    <t>Surname:18</t>
-  </si>
-  <si>
-    <t>Surname:19</t>
-  </si>
-  <si>
-    <t>Surname:20</t>
-  </si>
-  <si>
-    <t>Surname:21</t>
-  </si>
-  <si>
-    <t>Surname:22</t>
-  </si>
-  <si>
-    <t>Surname:23</t>
-  </si>
-  <si>
-    <t>Surname:24</t>
-  </si>
-  <si>
-    <t>Surname:25</t>
-  </si>
-  <si>
-    <t>Surname:26</t>
-  </si>
-  <si>
-    <t>Surname:27</t>
-  </si>
-  <si>
-    <t>Surname:28</t>
-  </si>
-  <si>
-    <t>Surname:29</t>
-  </si>
-  <si>
-    <t>Email:  = 3</t>
-  </si>
-  <si>
-    <t>Name: Пустое значение
-Surname: Пустое значение
-Email:  Пустое значение
-Password: Пустое значение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: 
-Surname: 
-Email:  
-Password: </t>
-  </si>
-  <si>
-    <t>Name: Пустое значение
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: 
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Пустое значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Пустое значение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: Vladislav
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: </t>
-  </si>
-  <si>
-    <t>Name: Буквы не латинского алфавита
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Владислав
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Буквы не латинского алфавита
-Email:  Валидационное значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Воронин
-Email:  vlad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Буквы не латинского алфавита
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  емейл@мейл.ру
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Буквы не латинского алфавита</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: Пароль123</t>
-  </si>
-  <si>
-    <t>Name: Граничное значение (2 символа)
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vl
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Граничное значение (19 символа)
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: VladislavVladislavV
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Граничное значение (2 символа)
-Email:  Валидационное значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Vo
-Email:  vlad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Граничное значение (18 символа)
-Email:  Валидационное значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: VladislavVladislavV
-Email:  vlad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Граничное значение в теле (3 символа)
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  qqq@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Граничное значение в теле (17 символов)
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  qqqqqqqqqqqqqqqqq@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Граничное значение в домене (3 символа)
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  qqq@i.u
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Граничное значение в домене (17 символа)
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  qqq@qqqqqqqqqqqqqq.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Граничное значение (5 символов)</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: Pass1</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Граничное значение (17 символов)</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: Passssssssssssss1</t>
-  </si>
-  <si>
-    <t>Name: Спецсимволы
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: "(%;*;
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Спецсимволы
-Email:  Валидационное значение
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: "(%;*;
-Email:  vlad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Спецсимволы
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  "(%;*;
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Спецсимволы</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: "(%;*;</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Дефис 2 раза подряд в теле
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vl--ad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Дефис 2 раза подряд в домене
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vlad9710@ma--il.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Точка 2 раза подряд в теле
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vl..ad9710@mail.ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Точка 2 раза подряд в домене
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vlad9710@mail..ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Поле не начинается с буквы или цифры
-Password: Валидационное значение</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  -vlad9710@mail..ru
-Password: Pass123</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Не вводим заглавную букву</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: password1</t>
-  </si>
-  <si>
-    <t>Name: Валидационное значение
-Surname: Валидационное значение
-Email:  Валидационное значение
-Password: Не вводим цифру</t>
-  </si>
-  <si>
-    <t>Name: Vladislav
-Surname: Voronin
-Email:  vlad9710@mail.ru
-Password: Password</t>
   </si>
   <si>
     <r>
@@ -2537,13 +2063,5260 @@
       </rPr>
       <t>: Валидное значение</t>
     </r>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Владислав
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Воронин
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  емейл@мейл.ру
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Пароль123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vl
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: VladislavVladislavV
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: VladislavVladislavV
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  qqq@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  qqqqqqqqqqqqqqqqq@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  qqq@i.u
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  qqq@qqqqqqqqqqqqqq.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Passssssssssssss1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: "(%;*;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:  vlad9710@mail.ru
+Password: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: "(%;*;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  "(%;*;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: "(%;*;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vl--ad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@ma--il.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vl..ad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail..ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  -vlad9710@mail..ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Pass123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: password1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Пустое значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Пустое значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Пустое значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Пустое значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Пустое значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Пустое значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Пустое значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Буквы не латинского алфавита
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Буквы не латинского алфавита
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Буквы не латинского алфавита
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Буквы не латинского алфавита</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Граничное значение (2 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Граничное значение (19 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Граничное значение (2 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Граничное значение (18 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Граничное значение в теле (3 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Граничное значение в теле (17 символов)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Граничное значение в домене (3 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Граничное значение в домене (17 символа)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Граничное значение (5 символов)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Граничное значение (17 символов)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Спецсимволы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Спецсимволы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Спецсимволы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Спецсимволы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Дефис 2 раза подряд в теле
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Дефис 2 раза подряд в домене
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Точка 2 раза подряд в теле
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Точка 2 раза подряд в домене
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Поле не начинается с буквы или цифры
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Валидационное значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Не вводим заглавную букву</t>
+    </r>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Валидационное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Не вводим цифру</t>
+    </r>
+  </si>
+  <si>
+    <t>Предусловие</t>
+  </si>
+  <si>
+    <t>Постусловие</t>
+  </si>
+  <si>
+    <t>1) Зайти на сайт http://itcareer.pythonanywhere.com/
+2) Заполнить данные согласно таблице</t>
+  </si>
+  <si>
+    <t>1) Нажать кнопку Submit</t>
+  </si>
+  <si>
+    <t>Заменить надпись "ITCareerToday web form" на "ITCareerToday registration form"</t>
+  </si>
+  <si>
+    <t>Добавить для поля Password функцию показа/скрытия введенных даннх</t>
+  </si>
+  <si>
+    <t>В сообщении об успешной регистрации отображать имя и фамилию с большой буквы ( а также добавить заглавную букву для двойных имен и фамилий после дефиса. Например: "Eva-Olivia", "Emilia-Ann" )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2672,6 +7445,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2699,7 +7480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2915,12 +7696,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3035,6 +7872,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3049,9 +7889,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3071,8 +7908,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3391,7 +8237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B39B6-8AD6-4C8F-BBB7-E4D22CCDEA64}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3409,10 +8255,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -3444,7 +8290,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +8298,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3472,10 +8318,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -3506,7 +8352,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,7 +8360,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,10 +8380,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="50"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3558,13 +8404,13 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +8418,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +8466,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,10 +8478,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="50"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -3710,7 +8556,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,15 +8570,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3740,7 +8586,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3748,7 +8594,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,15 +8602,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>111</v>
+      <c r="B6" s="24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,8 +8755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D093250-EA65-47A5-B792-4562C1EFC6FD}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,50 +8771,49 @@
       <c r="A1" s="14"/>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="53"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="60" t="s">
-        <v>185</v>
-      </c>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="B8" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>23</v>
@@ -3981,496 +8826,496 @@
       <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
     </row>
     <row r="12" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>190</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4624,10 +9469,9 @@
       <c r="D71" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4656,13 +9500,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
@@ -4670,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
@@ -4680,13 +9524,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4694,13 +9538,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4708,10 +9552,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -4720,10 +9564,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -4732,13 +9576,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
@@ -4746,7 +9590,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="56"/>
@@ -4756,10 +9600,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -4768,10 +9612,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -4780,13 +9624,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,13 +9638,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4808,13 +9652,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4822,13 +9666,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,7 +9680,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4846,7 +9690,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4856,7 +9700,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -4866,7 +9710,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4876,7 +9720,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4886,7 +9730,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -4896,7 +9740,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4906,7 +9750,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -4916,7 +9760,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4926,7 +9770,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4936,7 +9780,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4946,7 +9790,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4956,7 +9800,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -4966,7 +9810,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4976,7 +9820,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -4986,7 +9830,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -4996,7 +9840,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -5006,7 +9850,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -5016,7 +9860,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -5026,7 +9870,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -5036,7 +9880,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -5046,7 +9890,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -5056,7 +9900,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -5066,7 +9910,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -5121,7 +9965,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,82 +9973,82 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
       <c r="B7" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
       <c r="B8" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
       <c r="B10" s="38" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5212,82 +10056,82 @@
         <v>2</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="59"/>
       <c r="B19" s="38" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5295,82 +10139,82 @@
         <v>3</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
       <c r="B21" s="35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
       <c r="B22" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
       <c r="B23" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
       <c r="B24" s="35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="59"/>
       <c r="B28" s="38" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5378,73 +10222,73 @@
         <v>4</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" s="35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="58"/>
       <c r="B35" s="40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="59"/>
       <c r="B36" s="43" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5452,73 +10296,73 @@
         <v>5</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="58"/>
       <c r="B38" s="35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="58"/>
       <c r="B39" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="58"/>
       <c r="B40" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="58"/>
       <c r="B41" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="58"/>
       <c r="B42" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="59"/>
       <c r="B44" s="43" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5526,64 +10370,64 @@
         <v>6</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="58"/>
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="58"/>
       <c r="B47" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="58"/>
       <c r="B48" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="58"/>
       <c r="B49" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="58"/>
       <c r="B50" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="59"/>
       <c r="B51" s="44" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5591,82 +10435,82 @@
         <v>7</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="58"/>
       <c r="B53" s="35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
       <c r="B54" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
       <c r="B55" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
       <c r="B56" s="35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
       <c r="B57" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
       <c r="B58" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="59"/>
       <c r="B60" s="38" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5674,73 +10518,73 @@
         <v>8</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
       <c r="B62" s="35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
       <c r="B63" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
       <c r="B64" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
       <c r="B65" s="35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
       <c r="B66" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="58"/>
       <c r="B67" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="59"/>
       <c r="B68" s="44" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5748,73 +10592,73 @@
         <v>9</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="58"/>
       <c r="B70" s="35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="58"/>
       <c r="B71" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="58"/>
       <c r="B72" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="58"/>
       <c r="B73" s="35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="58"/>
       <c r="B74" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="58"/>
       <c r="B75" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="59"/>
       <c r="B76" s="44" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repository\Ksendzov_group_27\Web form testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E1237C-A7C7-4179-B3BF-55D1E45396D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815EFB8C-ED8B-40BD-93EF-D6B3D34C6B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="254">
   <si>
     <t>№</t>
   </si>
@@ -281,12 +281,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>bug#1</t>
-  </si>
-  <si>
-    <t>bug#2</t>
   </si>
   <si>
     <t>Описание</t>
@@ -338,6 +332,24 @@
     <t>Error: Error: All Fields are Required</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Улучшение#3</t>
+  </si>
+  <si>
+    <t>Появится надпись "Success! Hello: Vladislav-Voroninv Vladislav-Voroninv"</t>
+  </si>
+  <si>
+    <t>Чтоб вместо общей ошибки о неверном заполнении всех полей указывало на конкретную ошибку в конкретном поле</t>
+  </si>
+  <si>
+    <t>Success! Hello: Vladislav</t>
+  </si>
+  <si>
+    <t>How to fix</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -379,7 +391,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> AnN
+      <t xml:space="preserve"> Vladislav
 </t>
     </r>
     <r>
@@ -401,7 +413,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> AnN
+      <t xml:space="preserve"> 
 </t>
     </r>
     <r>
@@ -449,25 +461,13 @@
     </r>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Улучшение#3</t>
-  </si>
-  <si>
-    <t>Появится надпись "Success! Hello: Vladislav-Voroninv Vladislav-Voroninv"</t>
-  </si>
-  <si>
-    <t>Чтоб вместо общей ошибки о неверном заполнении всех полей указывало на конкретную ошибку в конкретном поле</t>
-  </si>
-  <si>
-    <t>Success! Hello: Vladislav</t>
-  </si>
-  <si>
-    <t>How to fix</t>
-  </si>
-  <si>
-    <t>Задать минимальное значение для поля Name - 3 символа,  для поля Surname, если оно не пустое, - 3 символа</t>
+    <t>Добавить для поля Surname возможность быть пустым</t>
+  </si>
+  <si>
+    <t>bug#3</t>
+  </si>
+  <si>
+    <t>Major</t>
   </si>
   <si>
     <r>
@@ -533,6 +533,28 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve"> Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
@@ -545,6 +567,134 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pas123</t>
+    </r>
+  </si>
+  <si>
+    <t>Success! Hello: Vladislav Voronin</t>
+  </si>
+  <si>
+    <t>Сделать поле Email обязательным для входа</t>
+  </si>
+  <si>
+    <t>Форма пропускает валидацию без ввода email</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Опечатка</t>
+  </si>
+  <si>
+    <t>Surame</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>Надпись в кнопке Submit находится посередине</t>
+  </si>
+  <si>
+    <t>Надпись в кнопке Submit сдвинута вправо</t>
+  </si>
+  <si>
+    <t>Форма пропускает валидацию без ввода password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
       <t>Email:</t>
     </r>
     <r>
@@ -555,7 +705,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> vlad@i.ru
+      <t xml:space="preserve"> vlad9710@mail.ru
 </t>
     </r>
     <r>
@@ -577,17 +727,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Pas123</t>
-    </r>
-  </si>
-  <si>
-    <t>Добавить для поля Surname возможность быть пустым</t>
-  </si>
-  <si>
-    <t>bug#3</t>
-  </si>
-  <si>
-    <t>Major</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Сделать поле Password обязательным для входа</t>
+  </si>
+  <si>
+    <t>bug#7</t>
+  </si>
+  <si>
+    <t>Поле Name пропускает значение с буквами, отличными от латинского</t>
   </si>
   <si>
     <r>
@@ -631,7 +781,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Vladislav
+      <t xml:space="preserve">Владислав
 </t>
     </r>
     <r>
@@ -675,7 +825,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> 
+      <t xml:space="preserve"> vlad9710@mail.ru
 </t>
     </r>
     <r>
@@ -697,59 +847,14 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Pas123</t>
-    </r>
-  </si>
-  <si>
-    <t>Success! Hello: Vladislav Voronin</t>
-  </si>
-  <si>
-    <t>Сделать поле Email обязательным для входа</t>
-  </si>
-  <si>
-    <t>Форма пропускает валидацию без ввода email</t>
-  </si>
-  <si>
-    <t>Attachments</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Нестандартное поведение кнопки Submit</t>
-  </si>
-  <si>
-    <t>Кнопка выделяется полностью</t>
-  </si>
-  <si>
-    <t>Кнопка выделяется постепенно</t>
-  </si>
-  <si>
-    <t>Опечатка</t>
-  </si>
-  <si>
-    <t>Surame</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Фото</t>
-  </si>
-  <si>
-    <t>Видео</t>
-  </si>
-  <si>
-    <t>Надпись в кнопке Submit находится посередине</t>
-  </si>
-  <si>
-    <t>Надпись в кнопке Submit сдвинута вправо</t>
-  </si>
-  <si>
-    <t>Форма пропускает валидацию без ввода password</t>
+      <t xml:space="preserve"> Pass123</t>
+    </r>
+  </si>
+  <si>
+    <t>Success! Hello: Владислав Voronin</t>
+  </si>
+  <si>
+    <t>Поле Surname пропускает значение с буквами, отличными от латинского</t>
   </si>
   <si>
     <r>
@@ -783,7 +888,17 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>Name:</t>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Vladislav</t>
     </r>
     <r>
       <rPr>
@@ -793,7 +908,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Vladislav
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -815,7 +930,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Voronin
+      <t xml:space="preserve"> Воронин
 </t>
     </r>
     <r>
@@ -859,263 +974,13 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Сделать поле Password обязательным для входа</t>
-  </si>
-  <si>
-    <t>bug#7</t>
-  </si>
-  <si>
-    <t>Поле Name пропускает значение с буквами, отличными от латинского</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ввести следующие значения: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Владислав
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Surname:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Voronin
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Email:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> vlad9710@mail.ru
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t xml:space="preserve"> Pass123</t>
     </r>
   </si>
   <si>
-    <t>Success! Hello: Владислав Voronin</t>
-  </si>
-  <si>
-    <t>Поле Surname пропускает значение с буквами, отличными от латинского</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ввести следующие значения: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Vladislav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Surname:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Воронин
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Email:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> vlad9710@mail.ru
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Pass123</t>
-    </r>
-  </si>
-  <si>
     <t>bug#8</t>
   </si>
   <si>
-    <t>bug#9</t>
-  </si>
-  <si>
     <t>Success! Hello: Vladislav Воронин</t>
   </si>
   <si>
@@ -1123,9 +988,6 @@
   </si>
   <si>
     <t>Сдвинута надпись кнопки Submit</t>
-  </si>
-  <si>
-    <t>При вводе в поле Name (surname)  граничного значения 3 символа не удается пройти регистрацию</t>
   </si>
   <si>
     <r>
@@ -7310,6 +7172,255 @@
   </si>
   <si>
     <t>В сообщении об успешной регистрации отображать имя и фамилию с большой буквы ( а также добавить заглавную букву для двойных имен и фамилий после дефиса. Например: "Eva-Olivia", "Emilia-Ann" )</t>
+  </si>
+  <si>
+    <t>При вводе в поле Name граничного значения 3 символа не удается пройти регистрацию</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Anastasia
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> AnN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad@i.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pas123</t>
+    </r>
+  </si>
+  <si>
+    <t>При вводе в поле Surname граничного значения 3 символа не удается пройти регистрацию</t>
+  </si>
+  <si>
+    <t>Задать минимальное значение для поля Name - 3 символа</t>
+  </si>
+  <si>
+    <t>Задать минимальное значение для поля Surname, если оно не пустое, - 3 символа</t>
+  </si>
+  <si>
+    <t>bug#1 , bug#2</t>
+  </si>
+  <si>
+    <t>Появится надпись "Success! Hello: Ann Ivanova"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Ann
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Ivanova
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad@i.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pas123</t>
+    </r>
+  </si>
+  <si>
+    <t>Появляется надпись "Error: Error: All Fields are Required"</t>
+  </si>
+  <si>
+    <t>bug#4</t>
+  </si>
+  <si>
+    <t>bug#6</t>
   </si>
 </sst>
 </file>
@@ -7757,7 +7868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7851,9 +7962,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7919,6 +8027,27 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8237,7 +8366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B39B6-8AD6-4C8F-BBB7-E4D22CCDEA64}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -8255,10 +8384,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -8318,10 +8447,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -8380,10 +8509,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="49"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -8478,10 +8607,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="49"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -8556,7 +8685,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8578,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8586,7 +8715,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -8594,7 +8723,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8610,7 +8739,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8755,8 +8884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D093250-EA65-47A5-B792-4562C1EFC6FD}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8776,20 +8905,20 @@
       <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>248</v>
+      <c r="B3" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>249</v>
+      <c r="B4" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8802,7 +8931,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="48"/>
+      <c r="B7" s="47"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
@@ -8826,35 +8955,35 @@
       <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>34</v>
@@ -8862,13 +8991,13 @@
     </row>
     <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>35</v>
@@ -8876,27 +9005,27 @@
     </row>
     <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
@@ -8906,21 +9035,21 @@
       <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
@@ -8928,13 +9057,13 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
@@ -8942,13 +9071,13 @@
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>29</v>
@@ -8956,13 +9085,13 @@
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
@@ -8970,13 +9099,13 @@
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
@@ -8984,13 +9113,13 @@
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -8998,13 +9127,13 @@
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
@@ -9012,13 +9141,13 @@
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -9026,13 +9155,13 @@
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -9040,13 +9169,13 @@
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>29</v>
@@ -9054,13 +9183,13 @@
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>29</v>
@@ -9068,13 +9197,13 @@
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>29</v>
@@ -9082,13 +9211,13 @@
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>29</v>
@@ -9096,13 +9225,13 @@
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>29</v>
@@ -9110,13 +9239,13 @@
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>29</v>
@@ -9124,13 +9253,13 @@
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>29</v>
@@ -9138,13 +9267,13 @@
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>29</v>
@@ -9152,13 +9281,13 @@
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>29</v>
@@ -9166,13 +9295,13 @@
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>29</v>
@@ -9180,13 +9309,13 @@
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>29</v>
@@ -9194,13 +9323,13 @@
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>29</v>
@@ -9208,13 +9337,13 @@
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>29</v>
@@ -9222,13 +9351,13 @@
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>29</v>
@@ -9236,13 +9365,13 @@
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>29</v>
@@ -9250,13 +9379,13 @@
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>29</v>
@@ -9264,13 +9393,13 @@
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>29</v>
@@ -9278,13 +9407,13 @@
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>29</v>
@@ -9292,13 +9421,13 @@
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>29</v>
@@ -9306,13 +9435,13 @@
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>29</v>
@@ -9484,7 +9613,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9513,11 +9642,11 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -9529,8 +9658,8 @@
       <c r="C3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>82</v>
+      <c r="D3" s="40" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9541,10 +9670,10 @@
         <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9555,7 +9684,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -9567,7 +9696,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -9581,19 +9710,19 @@
       <c r="C7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>83</v>
+      <c r="D7" s="40" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -9603,7 +9732,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -9615,7 +9744,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -9629,8 +9758,8 @@
       <c r="C11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>110</v>
+      <c r="D11" s="40" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -9643,8 +9772,8 @@
       <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>132</v>
+      <c r="D12" s="40" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9657,8 +9786,8 @@
       <c r="C13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>138</v>
+      <c r="D13" s="40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9671,8 +9800,8 @@
       <c r="C14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>139</v>
+      <c r="D14" s="40" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9932,11 +10061,11 @@
   <hyperlinks>
     <hyperlink ref="D3" location="'Баг-репорты'!A2" display="bug#1" xr:uid="{B0844C90-C3F5-4098-A5F7-F6D19CFD176E}"/>
     <hyperlink ref="D4" location="'Предлагаемые улучшения'!A4" display="Улучшение#3" xr:uid="{3F7C33D7-671B-47AB-BA65-57F8533D2FF6}"/>
-    <hyperlink ref="D7" location="'Баг-репорты'!A11" display="bug#2" xr:uid="{3E72B7D6-1E2A-41FC-9315-1252EAC2A4D4}"/>
-    <hyperlink ref="D11" location="'Баг-репорты'!A20" display="bug#3" xr:uid="{7E2A2EA4-B975-4AC2-83D7-1F971652E231}"/>
-    <hyperlink ref="D12" location="'Баг-репорты'!A52" display="bug#7" xr:uid="{B5B9F071-0BF3-4B4C-8A86-C17A64427DC6}"/>
-    <hyperlink ref="D13" location="'Баг-репорты'!A61" display="bug#8" xr:uid="{D18B92F2-CECA-4F3F-A4D7-5FAE876E166F}"/>
-    <hyperlink ref="D14" location="'Баг-репорты'!A69" display="bug#9" xr:uid="{6502581B-62AD-4400-B312-CC53AE09DD2A}"/>
+    <hyperlink ref="D11" location="'Баг-репорты'!A29" display="bug#4" xr:uid="{7E2A2EA4-B975-4AC2-83D7-1F971652E231}"/>
+    <hyperlink ref="D12" location="'Баг-репорты'!A46" display="bug#6" xr:uid="{B5B9F071-0BF3-4B4C-8A86-C17A64427DC6}"/>
+    <hyperlink ref="D13" location="'Баг-репорты'!A53" display="bug#7" xr:uid="{D18B92F2-CECA-4F3F-A4D7-5FAE876E166F}"/>
+    <hyperlink ref="D14" location="'Баг-репорты'!A62" display="bug#8" xr:uid="{6502581B-62AD-4400-B312-CC53AE09DD2A}"/>
+    <hyperlink ref="D7" location="'Баг-репорты'!A20" display="bug#3" xr:uid="{3E72B7D6-1E2A-41FC-9315-1252EAC2A4D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9945,10 +10074,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F10681-1226-405D-B263-A11677354A1A}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9965,719 +10094,727 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <v>2</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
+        <v>3</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="35" t="s">
+      <c r="C21" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C22" s="28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="35" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="35" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C24" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="30" t="s">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="35" t="s">
+      <c r="C26" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="37" t="s">
+      <c r="C27" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="56">
+        <v>4</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="39" t="s">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="56">
+        <v>5</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="57"/>
+      <c r="B44" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
+      <c r="B45" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="56">
+        <v>6</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="57"/>
+      <c r="B47" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="57"/>
+      <c r="B48" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="57"/>
+      <c r="B49" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="57"/>
+      <c r="B51" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="58"/>
+      <c r="B52" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="56">
+        <v>7</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="57"/>
+      <c r="B54" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57">
-        <v>2</v>
-      </c>
-      <c r="B11" s="34" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="57"/>
+      <c r="B55" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="57"/>
+      <c r="B56" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="57"/>
+      <c r="B57" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="57"/>
+      <c r="B58" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
+      <c r="B59" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="57"/>
+      <c r="B60" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="58"/>
+      <c r="B61" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="56">
+        <v>8</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="57"/>
+      <c r="B63" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="35" t="s">
+      <c r="C63" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="57"/>
+      <c r="B64" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C64" s="28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="35" t="s">
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="57"/>
+      <c r="B65" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C65" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="35" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="57"/>
+      <c r="B66" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C66" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="30" t="s">
+    <row r="67" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="57"/>
+      <c r="B67" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="57"/>
+      <c r="B68" s="35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="35" t="s">
+      <c r="C68" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="58"/>
+      <c r="B69" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="57">
-        <v>3</v>
-      </c>
-      <c r="B20" s="34" t="s">
+      <c r="C69" s="44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="56">
+        <v>9</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="57"/>
+      <c r="B71" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="35" t="s">
+      <c r="C71" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="57"/>
+      <c r="B72" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="35" t="s">
+      <c r="C72" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="57"/>
+      <c r="B73" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C73" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="35" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="57"/>
+      <c r="B74" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C74" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="30" t="s">
+    <row r="75" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="57"/>
+      <c r="B75" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
+      <c r="B76" s="35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="35" t="s">
+      <c r="C76" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="58"/>
+      <c r="B77" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="57">
-        <v>4</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="57">
-        <v>5</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="57">
-        <v>6</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="57">
-        <v>7</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="57">
-        <v>8</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="B66" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="B67" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="59"/>
-      <c r="B68" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="57">
-        <v>9</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
-      <c r="B74" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
-      <c r="B75" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="59"/>
-      <c r="B76" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>99</v>
+      <c r="C77" s="44" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A70:A77"/>
     <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A44"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" xr:uid="{A24A17E6-EBB0-4654-BECE-C04451002AE6}"/>
-    <hyperlink ref="C44" r:id="rId2" location="/view/3dp44wavp" xr:uid="{66AD88BA-8637-492A-8D90-ACD068DA06B1}"/>
+    <hyperlink ref="C45" r:id="rId1" xr:uid="{A24A17E6-EBB0-4654-BECE-C04451002AE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repository\Ksendzov_group_27\Web form testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815EFB8C-ED8B-40BD-93EF-D6B3D34C6B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C959C-86E0-4022-ABC2-A95DAFFD090B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="248">
   <si>
     <t>№</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Тест id 2.29</t>
   </si>
   <si>
-    <t>Тест id 2.30</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>Форма не отрабатывает валидационное значение</t>
   </si>
   <si>
     <t>Severity</t>
@@ -323,15 +317,9 @@
     <t>Actual result</t>
   </si>
   <si>
-    <t>Success! Hello: Ann Ann</t>
-  </si>
-  <si>
     <t>Expected result</t>
   </si>
   <si>
-    <t>Error: Error: All Fields are Required</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -344,252 +332,15 @@
     <t>Чтоб вместо общей ошибки о неверном заполнении всех полей указывало на конкретную ошибку в конкретном поле</t>
   </si>
   <si>
-    <t>Success! Hello: Vladislav</t>
-  </si>
-  <si>
     <t>How to fix</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ввести следующие значения: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Vladislav
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Surname:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Email:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> vlad@i.ru
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Pas123</t>
-    </r>
-  </si>
-  <si>
-    <t>Добавить для поля Surname возможность быть пустым</t>
-  </si>
-  <si>
     <t>bug#3</t>
   </si>
   <si>
     <t>Major</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ввести следующие значения: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Vladislav
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Surname:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Voronin
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Email:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Pas123</t>
-    </r>
-  </si>
-  <si>
-    <t>Success! Hello: Vladislav Voronin</t>
-  </si>
-  <si>
-    <t>Сделать поле Email обязательным для входа</t>
-  </si>
-  <si>
-    <t>Форма пропускает валидацию без ввода email</t>
-  </si>
-  <si>
     <t>Attachments</t>
   </si>
   <si>
@@ -599,138 +350,12 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Опечатка</t>
-  </si>
-  <si>
-    <t>Surame</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
     <t>Фото</t>
   </si>
   <si>
-    <t>Надпись в кнопке Submit находится посередине</t>
-  </si>
-  <si>
-    <t>Надпись в кнопке Submit сдвинута вправо</t>
-  </si>
-  <si>
     <t>Форма пропускает валидацию без ввода password</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ввести следующие значения: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Vladislav
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Surname:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Voronin
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Email:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> vlad9710@mail.ru
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Сделать поле Password обязательным для входа</t>
   </si>
   <si>
@@ -740,248 +365,10 @@
     <t>Поле Name пропускает значение с буквами, отличными от латинского</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ввести следующие значения: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Владислав
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Surname:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Voronin
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Email:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> vlad9710@mail.ru
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Pass123</t>
-    </r>
-  </si>
-  <si>
-    <t>Success! Hello: Владислав Voronin</t>
-  </si>
-  <si>
     <t>Поле Surname пропускает значение с буквами, отличными от латинского</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ввести следующие значения: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Vladislav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Surname:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Воронин
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Email:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> vlad9710@mail.ru
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Password:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Pass123</t>
-    </r>
-  </si>
-  <si>
     <t>bug#8</t>
-  </si>
-  <si>
-    <t>Success! Hello: Vladislav Воронин</t>
   </si>
   <si>
     <t>Step to reproduce</t>
@@ -7168,15 +6555,30 @@
     <t>Заменить надпись "ITCareerToday web form" на "ITCareerToday registration form"</t>
   </si>
   <si>
-    <t>Добавить для поля Password функцию показа/скрытия введенных даннх</t>
-  </si>
-  <si>
     <t>В сообщении об успешной регистрации отображать имя и фамилию с большой буквы ( а также добавить заглавную букву для двойных имен и фамилий после дефиса. Например: "Eva-Olivia", "Emilia-Ann" )</t>
   </si>
   <si>
     <t>При вводе в поле Name граничного значения 3 символа не удается пройти регистрацию</t>
   </si>
   <si>
+    <t>При вводе в поле Surname граничного значения 3 символа не удается пройти регистрацию</t>
+  </si>
+  <si>
+    <t>bug#1 , bug#2</t>
+  </si>
+  <si>
+    <t>Появляется надпись "Error: Error: All Fields are Required"</t>
+  </si>
+  <si>
+    <t>bug#4</t>
+  </si>
+  <si>
+    <t>bug#6</t>
+  </si>
+  <si>
+    <t>Поле Surname нельзя оставить пустым</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -7186,6 +6588,129 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve">1) Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Ann
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Ivanova
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad@i.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pas123
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2) Нажать кнопку Submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve">Ввести следующие значения: </t>
     </r>
     <r>
@@ -7240,7 +6765,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> AnN
+      <t xml:space="preserve"> Ann
 </t>
     </r>
     <r>
@@ -7284,23 +6809,9 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Pas123</t>
-    </r>
-  </si>
-  <si>
-    <t>При вводе в поле Surname граничного значения 3 символа не удается пройти регистрацию</t>
-  </si>
-  <si>
-    <t>Задать минимальное значение для поля Name - 3 символа</t>
-  </si>
-  <si>
-    <t>Задать минимальное значение для поля Surname, если оно не пустое, - 3 символа</t>
-  </si>
-  <si>
-    <t>bug#1 , bug#2</t>
-  </si>
-  <si>
-    <t>Появится надпись "Success! Hello: Ann Ivanova"</t>
+      <t xml:space="preserve"> Pas123
+2) Нажать кнопку Submit</t>
+    </r>
   </si>
   <si>
     <r>
@@ -7344,7 +6855,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Ann
+      <t xml:space="preserve"> Vladislav
 </t>
     </r>
     <r>
@@ -7366,7 +6877,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Ivanova
+      <t xml:space="preserve"> 
 </t>
     </r>
     <r>
@@ -7410,17 +6921,506 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Pas123</t>
-    </r>
-  </si>
-  <si>
-    <t>Появляется надпись "Error: Error: All Fields are Required"</t>
-  </si>
-  <si>
-    <t>bug#4</t>
-  </si>
-  <si>
-    <t>bug#6</t>
+      <t xml:space="preserve"> Pas123
+2) Нажать кнопку Submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pas123
+2) Нажать кнопку Submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Vladislav
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+2) Нажать кнопку Submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Владислав
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Voronin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pass123
+2) Нажать кнопку Submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ввести следующие значения: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Vladislav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Surname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Воронин
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> vlad9710@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pass123
+2) Нажать кнопку Submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Опечатка в поле Surname</t>
+  </si>
+  <si>
+    <t>Возможна регистрация без ввода email</t>
+  </si>
+  <si>
+    <t>Появляется надпись "Success! Hello: Vladislav "</t>
+  </si>
+  <si>
+    <t>Появляется надпись "Success! Hello: Ann Ivanova"</t>
+  </si>
+  <si>
+    <t>Появляется надпись "Success! Hello: Anastasia Ann"</t>
+  </si>
+  <si>
+    <t>Появляется надпись "Success! Hello: Vladislav Voronin "</t>
+  </si>
+  <si>
+    <t>Название кнопки Submit смещено вправо</t>
+  </si>
+  <si>
+    <t>Название кнопки Submit находится в центре</t>
+  </si>
+  <si>
+    <t>Появляется надпись: Success! Hello: Владислав Voronin</t>
+  </si>
+  <si>
+    <t>Появляется надпись: Success! Hello: Vladislav Воронин</t>
+  </si>
+  <si>
+    <t>Добавить для поля Password функцию показа/скрытия введенных данных</t>
+  </si>
+  <si>
+    <t>Поле для ввода фамилии называется "Surame"</t>
+  </si>
+  <si>
+    <t>Поле для ввода фамилии называется "Surname"</t>
   </si>
 </sst>
 </file>
@@ -7542,15 +7542,6 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -7560,6 +7551,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -7591,7 +7589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -7785,17 +7783,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -7868,7 +7855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7907,9 +7894,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7931,9 +7915,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7965,23 +7946,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8016,38 +8013,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8366,7 +8345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B39B6-8AD6-4C8F-BBB7-E4D22CCDEA64}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -8384,10 +8363,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -8447,10 +8426,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -8509,10 +8488,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="51"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -8607,10 +8586,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="51"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -8685,7 +8664,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8706,31 +8685,31 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>240</v>
+      <c r="B2" s="23" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>241</v>
+      <c r="B3" s="23" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>242</v>
+      <c r="B4" s="23" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8738,8 +8717,8 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>101</v>
+      <c r="B6" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8884,8 +8863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D093250-EA65-47A5-B792-4562C1EFC6FD}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8905,20 +8884,20 @@
       <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>238</v>
+      <c r="B3" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>239</v>
+      <c r="B4" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8931,23 +8910,23 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="42"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8955,35 +8934,35 @@
       <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
     </row>
     <row r="12" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>34</v>
@@ -8991,13 +8970,13 @@
     </row>
     <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>35</v>
@@ -9005,27 +8984,27 @@
     </row>
     <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
@@ -9035,21 +9014,21 @@
       <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
@@ -9057,13 +9036,13 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
@@ -9071,13 +9050,13 @@
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>29</v>
@@ -9085,13 +9064,13 @@
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
@@ -9099,13 +9078,13 @@
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
@@ -9113,13 +9092,13 @@
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -9127,13 +9106,13 @@
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
@@ -9141,13 +9120,13 @@
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -9155,13 +9134,13 @@
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -9169,13 +9148,13 @@
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>29</v>
@@ -9183,13 +9162,13 @@
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>29</v>
@@ -9197,13 +9176,13 @@
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>29</v>
@@ -9211,13 +9190,13 @@
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>29</v>
@@ -9225,13 +9204,13 @@
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>29</v>
@@ -9239,13 +9218,13 @@
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>29</v>
@@ -9253,13 +9232,13 @@
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>29</v>
@@ -9267,13 +9246,13 @@
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>29</v>
@@ -9281,13 +9260,13 @@
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>29</v>
@@ -9295,13 +9274,13 @@
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>29</v>
@@ -9309,13 +9288,13 @@
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>29</v>
@@ -9323,13 +9302,13 @@
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>29</v>
@@ -9337,13 +9316,13 @@
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>29</v>
@@ -9351,13 +9330,13 @@
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>29</v>
@@ -9365,13 +9344,13 @@
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>29</v>
@@ -9379,13 +9358,13 @@
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>29</v>
@@ -9393,13 +9372,13 @@
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>29</v>
@@ -9407,13 +9386,13 @@
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>29</v>
@@ -9421,13 +9400,13 @@
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>29</v>
@@ -9435,167 +9414,167 @@
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9610,31 +9589,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95024382-1E9E-458B-A125-7BDA064F6CC9}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -9642,415 +9621,397 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>248</v>
+      <c r="C3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>99</v>
+      <c r="C4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="25"/>
+      <c r="C5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>106</v>
+      <c r="C7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>252</v>
+      <c r="C11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>253</v>
+      <c r="C12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>124</v>
+      <c r="C13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>130</v>
+      <c r="C14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>8</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>10</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>11</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>12</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>16</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>17</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>18</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>19</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>21</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>22</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>23</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>24</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>25</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>26</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>27</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>28</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>29</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>30</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>31</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10066,6 +10027,42 @@
     <hyperlink ref="D13" location="'Баг-репорты'!A53" display="bug#7" xr:uid="{D18B92F2-CECA-4F3F-A4D7-5FAE876E166F}"/>
     <hyperlink ref="D14" location="'Баг-репорты'!A62" display="bug#8" xr:uid="{6502581B-62AD-4400-B312-CC53AE09DD2A}"/>
     <hyperlink ref="D7" location="'Баг-репорты'!A20" display="bug#3" xr:uid="{3E72B7D6-1E2A-41FC-9315-1252EAC2A4D4}"/>
+    <hyperlink ref="B3" location="'Тест-кейсы'!A12" display="Тест id 1.1" xr:uid="{FE8EEAC1-7559-4EC9-BCDC-66E85CE4E78B}"/>
+    <hyperlink ref="B4" location="'Тест-кейсы'!A13" display="Тест id 1.2" xr:uid="{DD3AE290-93FE-4370-8462-3AE928270998}"/>
+    <hyperlink ref="B5" location="'Тест-кейсы'!A14" display="Тест id 1.3" xr:uid="{28AB0751-9B6E-4CA0-B44C-E0DF251E6A5E}"/>
+    <hyperlink ref="B7" location="'Тест-кейсы'!A16" display="Тест id 1.5" xr:uid="{C16658A7-84EC-4D31-B8EB-C28C54A9CA2D}"/>
+    <hyperlink ref="B6" location="'Тест-кейсы'!A15" display="Тест id 1.4" xr:uid="{30331631-8286-435C-BDE3-0957335CFC0D}"/>
+    <hyperlink ref="B9" location="'Тест-кейсы'!A18" display="Тест id 2.1" xr:uid="{DEB3111C-570E-408F-B23C-2A30FC2D1B2D}"/>
+    <hyperlink ref="B10" location="'Тест-кейсы'!A19" display="Тест id 2.2" xr:uid="{F73BAF22-53EF-4943-8ACC-C33C627D6C27}"/>
+    <hyperlink ref="B11" location="'Тест-кейсы'!A20" display="Тест id 2.3" xr:uid="{8B88DBCB-9311-4483-ABF6-8CE371DFD384}"/>
+    <hyperlink ref="B12" location="'Тест-кейсы'!A21" display="Тест id 2.4" xr:uid="{93C7BDB4-B2F7-460F-94C4-3C7BF2466519}"/>
+    <hyperlink ref="B15" location="'Тест-кейсы'!A24" display="Тест id 2.7" xr:uid="{793C136D-2112-4056-B0C2-666CE47BA946}"/>
+    <hyperlink ref="B18" location="'Тест-кейсы'!A27" display="Тест id 2.10" xr:uid="{30F8247D-0F23-4F68-8771-E2D6D7739F8E}"/>
+    <hyperlink ref="B21" location="'Тест-кейсы'!A30" display="Тест id 2.13" xr:uid="{D12C0F47-C11A-4D6F-B920-DAEEA4412B64}"/>
+    <hyperlink ref="B13" location="'Тест-кейсы'!A22" display="Тест id 2.5" xr:uid="{5ADEFD91-4B4E-46D8-AF0F-37DE7510A421}"/>
+    <hyperlink ref="B16" location="'Тест-кейсы'!A25" display="Тест id 2.8" xr:uid="{3276C898-4663-4DA0-B4CA-A8A238DADBAC}"/>
+    <hyperlink ref="B19" location="'Тест-кейсы'!A28" display="Тест id 2.11" xr:uid="{1E42A6E4-F424-4BC7-9EFA-9D7AD56D5467}"/>
+    <hyperlink ref="B14" location="'Тест-кейсы'!A23" display="Тест id 2.6" xr:uid="{1A963D87-B271-4E44-9335-158AD95703DD}"/>
+    <hyperlink ref="B17" location="'Тест-кейсы'!A26" display="Тест id 2.9" xr:uid="{6DF8C5C6-DB2F-4441-B8DF-B0DA29384381}"/>
+    <hyperlink ref="B20" location="'Тест-кейсы'!A29" display="Тест id 2.12" xr:uid="{5AAAC630-9314-478F-B827-D92FE4C5D220}"/>
+    <hyperlink ref="B22:B33" location="'Тест-кейсы'!A30" display="Тест id 2.13" xr:uid="{67C2B7EF-5539-433A-A7E5-DA31FC5E2997}"/>
+    <hyperlink ref="B22" location="'Тест-кейсы'!A31" display="Тест id 2.14" xr:uid="{8518D074-B4FD-4D43-90CA-019EA4336C51}"/>
+    <hyperlink ref="B23" location="'Тест-кейсы'!A32" display="Тест id 2.15" xr:uid="{5761AC72-E1AF-40AB-AD8A-F0EF9807B410}"/>
+    <hyperlink ref="B24" location="'Тест-кейсы'!A33" display="Тест id 2.16" xr:uid="{98BD23B9-D259-492F-BFF1-3DA45838BD50}"/>
+    <hyperlink ref="B25" location="'Тест-кейсы'!A34" display="Тест id 2.17" xr:uid="{22AB8A89-8255-49F4-93BD-F65A4C44757F}"/>
+    <hyperlink ref="B26" location="'Тест-кейсы'!A35" display="Тест id 2.18" xr:uid="{75A77F43-9090-455D-A656-68FF8A971C9F}"/>
+    <hyperlink ref="B27" location="'Тест-кейсы'!A36" display="Тест id 2.19" xr:uid="{03A499E1-1BBC-456B-9E74-4735773B02DB}"/>
+    <hyperlink ref="B28" location="'Тест-кейсы'!A37" display="Тест id 2.20" xr:uid="{40149711-7A39-48C9-9826-47FFFC0C1B18}"/>
+    <hyperlink ref="B29" location="'Тест-кейсы'!A38" display="Тест id 2.21" xr:uid="{33DD9F6A-A11C-40C3-BD63-695BAFBEB850}"/>
+    <hyperlink ref="B30" location="'Тест-кейсы'!A39" display="Тест id 2.22" xr:uid="{E561BE41-8A73-4D4C-9B20-6666C5950613}"/>
+    <hyperlink ref="B31" location="'Тест-кейсы'!A40" display="Тест id 2.23" xr:uid="{D5949B3E-E928-4C91-A0F6-902449A7B1BF}"/>
+    <hyperlink ref="B32" location="'Тест-кейсы'!A41" display="Тест id 2.24" xr:uid="{D18A8E04-C381-4E30-8577-2FD7D72583DE}"/>
+    <hyperlink ref="B33" location="'Тест-кейсы'!A42" display="Тест id 2.25" xr:uid="{4A4FCF7D-59A9-48FB-9F75-97D2A04FCBDC}"/>
+    <hyperlink ref="B34:B37" location="'Тест-кейсы'!A30" display="Тест id 2.13" xr:uid="{19376B2E-884E-435B-A2E3-7ED4191019E4}"/>
+    <hyperlink ref="B34" location="'Тест-кейсы'!A43" display="Тест id 2.26" xr:uid="{4410FE07-3076-4B53-A38D-4D973B6090C6}"/>
+    <hyperlink ref="B35" location="'Тест-кейсы'!A44" display="Тест id 2.27" xr:uid="{9C286D19-8147-41C9-AF12-AB733E732D55}"/>
+    <hyperlink ref="B36" location="'Тест-кейсы'!A45" display="Тест id 2.28" xr:uid="{5B0EF394-8124-4365-8EAF-038BBF6F08D9}"/>
+    <hyperlink ref="B37" location="'Тест-кейсы'!A46" display="Тест id 2.29" xr:uid="{999A17B9-E91B-4C69-A9BF-C7CEC7D34650}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10074,10 +10071,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F10681-1226-405D-B263-A11677354A1A}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:A69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10087,732 +10084,696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C3" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
+      <c r="B17" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="58">
+        <v>3</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="58">
+        <v>4</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="59"/>
+      <c r="B33" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="58">
+        <v>5</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="60"/>
+      <c r="B41" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="58">
+        <v>6</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="59"/>
+      <c r="B45" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="60"/>
+      <c r="B48" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="58">
+        <v>7</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="59"/>
+      <c r="B53" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="59"/>
+      <c r="B54" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="59"/>
+      <c r="B55" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="59"/>
+      <c r="B56" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="60"/>
+      <c r="B57" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="58">
+        <v>8</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="59"/>
+      <c r="B60" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="59"/>
+      <c r="B62" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="59"/>
+      <c r="B63" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="34" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="35" t="s">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="60"/>
+      <c r="B65" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="58">
+        <v>9</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="59"/>
+      <c r="B68" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C68" s="26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="35" t="s">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="59"/>
+      <c r="B69" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C69" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="35" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C70" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="30" t="s">
+    <row r="71" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="59"/>
+      <c r="B71" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="59"/>
+      <c r="B72" s="33" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
-        <v>2</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="65" t="s">
+      <c r="C72" s="34" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
-        <v>3</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="56">
-        <v>4</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="56">
-        <v>5</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="56">
-        <v>6</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="56">
-        <v>7</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
-      <c r="B61" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="56">
-        <v>8</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="58"/>
-      <c r="B69" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="56">
-        <v>9</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="58"/>
-      <c r="B77" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="44" t="s">
-        <v>97</v>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="60"/>
+      <c r="B73" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A10:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C45" r:id="rId1" xr:uid="{A24A17E6-EBB0-4654-BECE-C04451002AE6}"/>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{A24A17E6-EBB0-4654-BECE-C04451002AE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Web form testing/Web form test.xlsx
+++ b/Web form testing/Web form test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repository\Ksendzov_group_27\Web form testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C959C-86E0-4022-ABC2-A95DAFFD090B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF06EBD-CAFD-4995-BB23-506E516610F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7797B186-17B9-4EE3-B441-B5FD63178B87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="250">
   <si>
     <t>№</t>
   </si>
@@ -6558,15 +6558,6 @@
     <t>В сообщении об успешной регистрации отображать имя и фамилию с большой буквы ( а также добавить заглавную букву для двойных имен и фамилий после дефиса. Например: "Eva-Olivia", "Emilia-Ann" )</t>
   </si>
   <si>
-    <t>При вводе в поле Name граничного значения 3 символа не удается пройти регистрацию</t>
-  </si>
-  <si>
-    <t>При вводе в поле Surname граничного значения 3 символа не удается пройти регистрацию</t>
-  </si>
-  <si>
-    <t>bug#1 , bug#2</t>
-  </si>
-  <si>
     <t>Появляется надпись "Error: Error: All Fields are Required"</t>
   </si>
   <si>
@@ -6574,9 +6565,6 @@
   </si>
   <si>
     <t>bug#6</t>
-  </si>
-  <si>
-    <t>Поле Surname нельзя оставить пустым</t>
   </si>
   <si>
     <r>
@@ -7421,13 +7409,31 @@
   </si>
   <si>
     <t>Поле для ввода фамилии называется "Surname"</t>
+  </si>
+  <si>
+    <t>Ошибка регистрации при вводе валидного граничного значения поля Name - 3 символа</t>
+  </si>
+  <si>
+    <t>Ошибка регистрации при вводе валидного граничного значения поля Surname - 3 символа</t>
+  </si>
+  <si>
+    <t>Ошибка регистрации при пустом валидном значении поля Surname</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Требования к Surname</t>
+  </si>
+  <si>
+    <t>bug#1, bug#2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7556,8 +7562,17 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color theme="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -7589,7 +7604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -7850,12 +7865,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7971,14 +8010,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8013,19 +8052,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8345,8 +8390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B39B6-8AD6-4C8F-BBB7-E4D22CCDEA64}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8694,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -8863,8 +8908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D093250-EA65-47A5-B792-4562C1EFC6FD}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9592,15 +9637,15 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="H12:I12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9631,27 +9676,27 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="64" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>223</v>
+      <c r="D3" s="65" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="64" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="66" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9659,37 +9704,37 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="64" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="66"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="64" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="67"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="64" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="65" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9707,65 +9752,65 @@
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="64" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="64" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="67"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="64" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>225</v>
+      <c r="D11" s="65" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="63" t="s">
-        <v>226</v>
+      <c r="D12" s="65" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="64" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="65" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9773,13 +9818,13 @@
       <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="64" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="65" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9787,17 +9832,17 @@
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="64" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="67"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>8</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="64" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="9"/>
@@ -9807,7 +9852,7 @@
       <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="9"/>
@@ -9817,7 +9862,7 @@
       <c r="A18" s="8">
         <v>10</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="64" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="9"/>
@@ -9827,7 +9872,7 @@
       <c r="A19" s="8">
         <v>11</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="64" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="9"/>
@@ -9837,7 +9882,7 @@
       <c r="A20" s="8">
         <v>12</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="64" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="9"/>
@@ -9847,7 +9892,7 @@
       <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="64" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="9"/>
@@ -9857,7 +9902,7 @@
       <c r="A22" s="8">
         <v>14</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="64" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="9"/>
@@ -9867,7 +9912,7 @@
       <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="64" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="9"/>
@@ -9877,7 +9922,7 @@
       <c r="A24" s="8">
         <v>16</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="64" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="9"/>
@@ -9887,7 +9932,7 @@
       <c r="A25" s="8">
         <v>17</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="64" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="9"/>
@@ -9897,7 +9942,7 @@
       <c r="A26" s="8">
         <v>18</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="64" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="9"/>
@@ -9907,7 +9952,7 @@
       <c r="A27" s="8">
         <v>19</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="64" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="9"/>
@@ -9917,7 +9962,7 @@
       <c r="A28" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="64" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="9"/>
@@ -9927,7 +9972,7 @@
       <c r="A29" s="8">
         <v>21</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="64" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="9"/>
@@ -9937,7 +9982,7 @@
       <c r="A30" s="8">
         <v>22</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="64" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="9"/>
@@ -9947,7 +9992,7 @@
       <c r="A31" s="8">
         <v>23</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="64" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="9"/>
@@ -9957,7 +10002,7 @@
       <c r="A32" s="8">
         <v>24</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="64" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="9"/>
@@ -9967,7 +10012,7 @@
       <c r="A33" s="8">
         <v>25</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="64" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="9"/>
@@ -9977,7 +10022,7 @@
       <c r="A34" s="8">
         <v>26</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="64" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="9"/>
@@ -9987,7 +10032,7 @@
       <c r="A35" s="8">
         <v>27</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="64" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="9"/>
@@ -9997,7 +10042,7 @@
       <c r="A36" s="8">
         <v>28</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="64" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="9"/>
@@ -10007,7 +10052,7 @@
       <c r="A37" s="8">
         <v>29</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="64" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="9"/>
@@ -10071,10 +10116,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F10681-1226-405D-B263-A11677354A1A}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10083,7 +10128,7 @@
     <col min="3" max="3" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
@@ -10094,7 +10139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
         <v>1</v>
       </c>
@@ -10102,10 +10147,11 @@
         <v>82</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="33" t="s">
         <v>83</v>
@@ -10114,7 +10160,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="33" t="s">
         <v>85</v>
@@ -10123,7 +10169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="33" t="s">
         <v>87</v>
@@ -10132,7 +10178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="33" t="s">
         <v>89</v>
@@ -10141,63 +10187,63 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="33" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
       <c r="B9" s="37" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <v>2</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="33" t="s">
         <v>87</v>
@@ -10206,7 +10252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="33" t="s">
         <v>89</v>
@@ -10215,22 +10261,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10239,7 +10285,7 @@
         <v>93</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10249,531 +10295,541 @@
       <c r="B18" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>227</v>
+      <c r="C18" s="62" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
-      <c r="B19" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>84</v>
+      <c r="B19" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
       <c r="B20" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
       <c r="B22" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="37" t="s">
+      <c r="C25" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59"/>
+      <c r="B26" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
+      <c r="C26" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="58">
         <v>4</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B27" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>100</v>
+      <c r="C27" s="25" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
       <c r="B28" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="37" t="s">
+      <c r="C33" s="35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="59"/>
+      <c r="B34" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
+      <c r="C34" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="58">
         <v>5</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B35" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C35" s="25" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
       <c r="B38" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
       <c r="B39" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>241</v>
+        <v>111</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="59"/>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
-      <c r="B41" s="38" t="s">
+      <c r="C41" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="60"/>
+      <c r="B42" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C42" s="40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="58">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
         <v>6</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B43" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>102</v>
+      <c r="C43" s="25" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
       <c r="B44" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="59"/>
       <c r="B45" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="59"/>
       <c r="B46" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="59"/>
       <c r="B47" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="60"/>
-      <c r="B48" s="39" t="s">
+      <c r="C48" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="60"/>
+      <c r="B49" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="58">
+      <c r="C49" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="58">
         <v>7</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B50" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C50" s="25" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="59"/>
       <c r="B51" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="59"/>
       <c r="B52" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="59"/>
       <c r="B53" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="59"/>
       <c r="B54" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="59"/>
       <c r="B55" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>240</v>
+        <v>111</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="59"/>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="59"/>
+      <c r="B57" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="60"/>
-      <c r="B57" s="36" t="s">
+      <c r="C57" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="60"/>
+      <c r="B58" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C58" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="58">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="58">
         <v>8</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B59" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C59" s="25" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="59"/>
       <c r="B60" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="59"/>
       <c r="B61" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="59"/>
       <c r="B62" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="60"/>
-      <c r="B65" s="39" t="s">
+      <c r="C65" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="60"/>
+      <c r="B66" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="58">
+      <c r="C66" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="58">
         <v>9</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B67" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="59"/>
       <c r="B68" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="59"/>
       <c r="B69" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="59"/>
       <c r="B70" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="59"/>
       <c r="B71" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="59"/>
       <c r="B72" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
-      <c r="B73" s="39" t="s">
+      <c r="C73" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="60"/>
+      <c r="B74" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="30" t="s">
-        <v>224</v>
+      <c r="C74" s="30" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A67:A74"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A42"/>
     <mergeCell ref="A10:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1" xr:uid="{A24A17E6-EBB0-4654-BECE-C04451002AE6}"/>
+    <hyperlink ref="C42" r:id="rId1" xr:uid="{A24A17E6-EBB0-4654-BECE-C04451002AE6}"/>
+    <hyperlink ref="C19" location="Требования!A11" display="Требования к Surname" xr:uid="{A313EFC4-5D02-4C39-992D-064CA1ADA56C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
